--- a/V2 - Gleichstrommaschine/Messungen.xlsx
+++ b/V2 - Gleichstrommaschine/Messungen.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\Hochschule Reutlingen\8. Semester\Elektrische Antriebe\Praktikum\Elektrische-Antriebe-Praktikum\V2 - Gleichstrommaschine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Benutzer\Johannes\Dokumente\Hochschule Reutlingen\8. Semester\Elektrische Antriebe\Praktikum\Elektrische-Antriebe-Praktikum\V2 - Gleichstrommaschine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAD509F-DFBA-4EBF-AABA-D1287A26C91A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" activeTab="1" xr2:uid="{4B5EAB46-02F0-4D66-88E9-1E01DF40936F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe 4" sheetId="1" r:id="rId1"/>
     <sheet name="Aufgabe 5" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1038,8 +1037,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>115155</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Freihand 7">
@@ -1058,7 +1057,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Freihand 7">
@@ -1103,8 +1102,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>5010</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Freihand 13">
@@ -1123,7 +1122,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Freihand 13">
@@ -1168,8 +1167,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>52530</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Freihand 14">
@@ -1188,7 +1187,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Freihand 14">
@@ -1233,8 +1232,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104865</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Freihand 15">
@@ -1253,7 +1252,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Freihand 15">
@@ -1298,8 +1297,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>71760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Freihand 17">
@@ -1318,7 +1317,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Freihand 17">
@@ -1363,8 +1362,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>124065</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Freihand 25">
@@ -1383,7 +1382,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Freihand 25">
@@ -1428,8 +1427,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>115155</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Freihand 26">
@@ -1448,7 +1447,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Freihand 26">
@@ -1493,8 +1492,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104865</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Freihand 27">
@@ -1513,7 +1512,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Freihand 27">
@@ -1558,8 +1557,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>71760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Freihand 28">
@@ -1578,7 +1577,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Freihand 28">
@@ -1623,8 +1622,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>124065</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Freihand 29">
@@ -1643,7 +1642,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Freihand 29">
@@ -1665,6 +1664,136 @@
             <a:xfrm>
               <a:off x="4186800" y="1715040"/>
               <a:ext cx="23040" cy="46800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>204720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71760</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Freihand 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5757E0D-D058-4C9C-B071-9FA1D9E4461B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4014720" y="1504800"/>
+            <a:ext cx="5040" cy="14760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Freihand 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4975D802-8D19-4BBC-BB8E-8488BE800F5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4005720" y="1495800"/>
+              <a:ext cx="22680" cy="32400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>204720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71760</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Freihand 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AFB48F-C579-45BB-A0D7-8CCAC4E3352C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4014720" y="1504800"/>
+            <a:ext cx="5040" cy="14760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Freihand 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4975D802-8D19-4BBC-BB8E-8488BE800F5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4005720" y="1495800"/>
+              <a:ext cx="22680" cy="32400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1729,8 +1858,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>81225</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Freihand 13">
@@ -1749,7 +1878,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Freihand 13">
@@ -1794,8 +1923,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>51214</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Freihand 14">
@@ -1814,7 +1943,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Freihand 14">
@@ -1859,8 +1988,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>74405</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Freihand 18">
@@ -1879,7 +2008,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Freihand 18">
@@ -1924,8 +2053,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>81605</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Freihand 24">
@@ -1944,7 +2073,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Freihand 24">
@@ -1989,8 +2118,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>139868</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Freihand 25">
@@ -2009,7 +2138,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Freihand 25">
@@ -2054,8 +2183,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>6819</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Freihand 32">
@@ -2074,7 +2203,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Freihand 32">
@@ -2119,8 +2248,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>83593</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Freihand 37">
@@ -2139,7 +2268,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Freihand 37">
@@ -2184,8 +2313,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>52122</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="39" name="Freihand 38">
@@ -2204,7 +2333,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="39" name="Freihand 38">
@@ -2249,8 +2378,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>128802</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Freihand 39">
@@ -2269,7 +2398,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Freihand 39">
@@ -2314,8 +2443,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>68113</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Freihand 40">
@@ -2334,7 +2463,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Freihand 40">
@@ -2379,8 +2508,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>73271</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Freihand 44">
@@ -2399,7 +2528,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Freihand 44">
@@ -2444,8 +2573,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>27551</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Freihand 46">
@@ -2464,7 +2593,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Freihand 46">
@@ -2509,8 +2638,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>81911</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Freihand 47">
@@ -2529,7 +2658,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Freihand 47">
@@ -2574,8 +2703,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>92705</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="52" name="Freihand 51">
@@ -2594,7 +2723,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="52" name="Freihand 51">
@@ -2639,8 +2768,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>67865</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="53" name="Freihand 52">
@@ -2659,7 +2788,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="53" name="Freihand 52">
@@ -2704,8 +2833,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>160385</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="60" name="Freihand 59">
@@ -2724,7 +2853,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="60" name="Freihand 59">
@@ -2769,8 +2898,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>124025</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Freihand 60">
@@ -2789,7 +2918,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Freihand 60">
@@ -2834,8 +2963,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>191</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Freihand 61">
@@ -2854,7 +2983,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Freihand 61">
@@ -2913,12 +3042,12 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 95 6400,'0'-2'310,"1"0"35,-1-1 424,5-2 1791,-3 4-1959,-1 1-52,1 0-71,1 0-88,-2 0-190,1 0-52,-1 0-59,1 0-65,0 0-64,-1 0-65,1 0-71,0 0-73,-1 0 289,0 0 0,0 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 0-40,2 10 275,0 1-38,-2-1-53,0-2-65,-2 34 342,-3 0-91,1-14-145,0 9 25,-1-6-79,-12 54 156,17-86-323,-20 108 384,11-55-211,0 9-43,6-28-34,2 16-100,1-40 1,0 0 0,1 0-1,0 0 1,0 0-1,1-1 1,2 6-1,-2-11 0,0 1 1,0-1-1,0 1 1,0-1 0,1 0-1,0 0 1,2 2-1,18 16 46,-20-20-41,0 0-1,1 0 1,-1 0 0,0 0-1,1-1 1,0 1 0,-1-1-1,1 0 1,0 0 0,-1-1-1,1 1 1,0-1 0,0 0-1,0 0 1,-1 0 0,4-1-5,6-1 14,0 0 0,0-2 0,-1 0 0,4-1-14,14-5 82,-24 8-73,28-8 49,3-3 40,0-6 66,-31 15-101,0 0 0,0 0 0,0-1 0,1-2-63,-6 6 5,0 0 0,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0-1 0,-1 1 0,1 0 0,0-1-5,1-10-7,-2 1-44,0 0-57,0 8 76,0 0 3,1 1 0,-1-1-1,0 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,0 1-1,1 0 1,-1-1 0,1 0 29,21-24-261,-6 8 132,-3-3 22,-3-1 39,6-9 19,-7 13 54,-4 4 40,2-7 102,-4 7-97,-4 10-49,0 1-1,0-1 1,-1 1-1,0 0 1,1-1-1,-2-1 0,-7-1 0,6 2 3,0 1 19,-6 2 33,6 2-12,-1 0-1,1 0 0,-1 0 1,1 1-1,0-1 0,-1 1 0,1-1 1,-3 2-43,-6 8 201,2 3-31,-3 0 51,6-6-91,-1 1 33,-2 8 139,-18 53 461,22-53-627,1-2-43,-1 3 7,1 0-46,3-10-52,1-1 0,0 0 0,1 1 0,0 4-2,0-7-9,0-1 1,0 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 1 0,1-1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,1 0 1,-1-1 0,1 0-1,1 2 9,4 1 2,-1 0 0,1-1 0,0 0-1,0 0 1,1 0 0,0-1-2,23 6-40,1-3-36,1-2-43,0-2-47,0-2-54,-1 0-59,-32 0 267,26-2-32,-6-5 84,-16 5-20,-1 1-2,-1 0-1,0 0 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0-1-18,0 1 10,-1-1 0,0 1 1,0-1-1,1 0 0,-1 0 0,-1 0 1,2 0-11,7-24-4,-2-3-84,-1 0-85,4 2-94,-8 21 253,1-3-47,9-31-269,-9 24 218,-3 1 27,-1 13 71,0 0 1,0 0 0,0 1-1,1-1 1,-1 0 0,1 0-1,0 0 1,-1 0 13,4-5-16,2-8 13,-5 1 43,0 5-19,-2-9 97,1 18-115,0 1 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0-1 0,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0-3,-18 3-26,5 4 57,4 5 45,3 4 35,2-1 82,1-5-50,-3 4 17,-1 2-66,3 0-67,3 4-59,3 11-90,0-5 16,-1-23 100,0 1 0,0 0 0,1 0-1,0-1 1,-1 1 0,2 1 6,-1-2-18,0-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,1 1 1,0-1 17,6 7-108,1-1-37,1-1-43,1 1-47,-2-2 49,1-1-50,0 0-46,-1 0-43,1-2-38,-1 1-33,10 1-483,5-1-287,35-1-1715,-33-3 1445,14 0-824</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="327.125">993 518 8448,'0'0'1121,"0"0"-430,0 0-179,0 0-79,0 0-92,0 1-78,0-1-25,-2 2 35,-7 6 415,8-6-430,0-1-65,0 1-55,1-1-47,0 1-32,0 0-40,1 2-52,-1-3 46,0 0 49,1 11 25,4 2-48,0 0-27,-2 0-6,9 27-6,-3-14 18,2 6 66,-9-29-58,0-1 0,0 1 0,0 0-1,0-1 1,1 1 0,-1-1-1,3 2-25,-4-3-120,1-1 73,-1 1 67,0 0 61,1 1 52,-1-1 47,2 2 289,-2-1-24,1 0 683,-2-4-745,0-1-36,-1-1-52,-1-2-68,-2-4 131,-1-6 156,3-1-116,2 8-282,0-2-34,-1-11-1,2-2-105,0 20 9,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 15,19-19-174,-9 12 44,0 1-40,5-3-135,1 1-110,-6 3 41,0 0-74,-3 3-20,0-1-53,0 2-45,0-1-38,13-4-957,13-1-900,-9 3 506,1 1-52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="879.704">1456 55 6528,'0'-1'239,"0"-1"71,0 1 59,0-1 49,0 0 422,0 1 1228,0 1-1410,0 1-102,0-1-328,0 1-40,0 0-44,0 0-48,0 0-53,0 1-106,0 0-118,0-1 44,0 1-34,1 7 360,-1-1 13,0 0-28,-1 0 7,-1 3 44,-1 2-100,-3 19 95,4-16-98,2 2 51,0 25 114,0 7-69,0 1-66,0-5-63,1 0 129,4 21-218,4 5 97,-1-38-92,-3-17-30,1 0 0,1 0 1,5 6 24,-11-21 4,-1 0 1,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1-1,0-1 1,0 0 0,2 1-5,-2-1 0,1 1-1,0 0 0,-1-1 1,1 0-1,0 1 1,0-1-1,-1 0 0,1-1 1,0 1-1,-1 0 1,1-1-1,1 0 1,18-9-82,-14 6 33,10-5-211,-10 5 84,0-1-34,0 0-35,1 0-39,-1-2-40,1 1-44,3-4-199,-3 5 145,-2 0 16,1 0-70,-2 1 12,1 0-72,1 1-83,-1-1-94,5-2-506,2-1-452</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1598.726">1906 558 6144,'0'0'804,"0"0"-308,0 0-129,0 0-56,0 0-65,0 0-57,1-1-16,0-2 25,8-15 303,-7 14-210,-1 1-100,-1 0-66,0 1-66,0 0-32,1 1 69,2-1 60,0 0-50,0 1 11,-2-1 66,0 0 6,-1 0 76,0-1 91,0-1 107,0-3-162,-1 1 44,-1 0 110,-4 0 274,-3 0 3,2 3-274,-1 0-110,0 0-41,0 0-137,-3-1 97,9 3-226,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 1-1,-1-1 0,0 1 1,0-1-42,-12 8 190,3 0-64,10-5-108,-1-1 1,0 0-1,0 0 1,1 1 0,-1-1-1,1 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 1-18,-10 23 8,1-2-26,9-23 13,0 0 0,1 1 0,0-1 0,-1 0 0,1 1 1,0-1-1,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 5,4 9-26,2 2-69,4 3-84,3 1-155,-7-14 63,1-2 56,9-3-97,-9 1 166,11-2-19,-1-2 33,3-7 42,-5 0 117,-10 4 31,0-1 32,3-5 144,-3-2 115,-4 7-126,0 0 35,-1 0 35,-1-1 39,0 3-67,0 1-46,0 1-39,0 0-34,0-3 55,0-7 143,-1 6-145,-2 3-70,-1 4-58,-1 3-46,-3 5-58,7-6 23,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,1 0-1,0 0 1,-1 1 0,1-1-1,0 0 1,0 0-1,-1 1 11,1 7-45,0 5-121,1 1-89,0 0-73,1-1-54,-1-10 251,-1 0 0,2 0 0,-1 0 0,0-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 131,7 6-409,2-1 68,1-1 71,2-3 72,-1-2 73,1-3 77,-1-5 77,-1-3 79,-6 1-2,1-1 64,-1 0 55,-1-1 46,5-8 305,-9 13-408,0 0 0,0 0-1,-1 0 1,0 0 0,1 0 0,-2 0 0,1 0 0,-1 0 0,1 0-168,-2-15 559,1 2-102,-3-4-9,1 16-309,1 1 1,-1-1-1,0 1 0,-3-6-139,1 5 53,1 4-42,0 9-91,2 6-60,1 7-141,0-12 115,4 19-430,-3-25 498,0 1-1,0 0 1,1 0-1,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,4 1 98,12 6-448,2-4 111,1-3 92,0-4 69,5-4 27,-13 2 57,0 0-1,-1-1 1,5-3 92,-5 1 21,-8 5-38,-1 0 0,1-1 1,-1 1-1,1-1 0,2-3 17,1-3 54,-2-1 110,-3 4-29,-1 1 42,0-2 49,0 1 52,-2 1-79,-1 3 162,0 3-199,0 1-42,0-1-73,-1 2-36,1-1-37,-4 3 104,4-3-63,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1 0 0,-1 1-1,1-1 1,0 0 0,-1 1-16,0 5 36,-1 1-42,-1 9-110,0 5-164,2 8-298,2-23 251,0 0 36,1 4-141,5 13-510,-3-18 613,0 0-46,0-1-11,0 1-58,0 0-70,1 0-80,-4-7 545,7 13-1121,-3-8 537,0-1-44,5 0-498,7-3-716</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1859.061">2726 3 7552,'-4'-1'784,"0"1"-60,-1 0-58,1 0-56,-1-1-70,1 1-46,0 0-44,-1 0-41,1 0-38,-1 0-35,-3 1 238,0 1-111,1 1-90,0 2-69,2 1-48,-2 5 37,0 1-64,0 1-53,0 1-45,-5 11 21,-12 28 41,11-18-100,5-3-35,4-1-36,1 0-40,0-1-36,1-14 27,0 0-69,1-5-20,-1 0-38,1 1-37,0-2-36,0 1-35,1 0-34,-1-1-35,1 1-33,0 3-201,0 0-55,0-1-67,0 1-76,0-4 94,0 1-43,0 2-187,0 6-495</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2047.543">2488 532 8960,'-10'-10'1249,"1"0"-101,4 6-619,0-1-35,1 1-37,0-1-41,2 3 187,1 2 101,1 0 183,0 0-345,0 0-89,0 0 107,0 0-150,0 0-68,1 0-93,1-2-71,4-3-31,2 2-49,0 1-41,2 1-36,10-1-56,-16 1-73,0 0 65,-1 0 53,2-1 69,0 0-11,-1 0-115,0 2-90,-2-1 24,1 1-33,2-1-181,1 1-121,-3 0 174,1 0-36,0 0-39,0 0-39,7 0-347,4 0-62,1 0-65,2 0-67,-4 0 137,2 0-36,31 0-1781</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 101 6400,'0'-2'310,"1"0"35,-1-2 424,5-1 1791,-3 4-1959,-1 1-52,1 0-71,1 0-88,-2 0-190,1 0-52,-1 0-59,1 0-65,0 0-64,-1 0-65,1 0-71,0 0-73,-1 0 289,0 0 0,0 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 1-40,2 9 275,0 2-38,-2-1-53,0-3-65,-2 37 342,-3-1-91,1-14-145,0 10 25,-1-7-79,-12 57 156,17-91-323,-20 115 384,11-59-211,0 10-43,6-30-34,2 17-100,1-43 1,0 1 0,1 0-1,0-1 1,0 1-1,1-2 1,2 7-1,-2-11 0,0 0 1,0-1-1,0 1 1,0 0 0,1-1-1,0 0 1,2 3-1,18 16 46,-20-21-41,0 0-1,1 0 1,-1 0 0,0 1-1,1-2 1,0 1 0,-1-1-1,1 0 1,0 0 0,-1-1-1,1 1 1,0-1 0,0 0-1,0 0 1,-1 0 0,4-1-5,6-1 14,0 0 0,0-3 0,-1 1 0,4-1-14,14-6 82,-24 9-73,28-9 49,3-2 40,0-7 66,-31 15-101,0 1 0,0 0 0,0-2 0,1-1-63,-6 6 5,0 0 0,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0-2 0,-1 2 0,1 0 0,0-1-5,1-11-7,-2 2-44,0-1-57,0 9 76,0 0 3,1 1 0,-1-2-1,0 2 1,1-1 0,0 1-1,-1-1 1,1 1 0,0-2 0,0 2-1,1 0 1,-1-1 0,1 0 29,21-26-261,-6 9 132,-3-3 22,-3-2 39,6-9 19,-7 14 54,-4 4 40,2-7 102,-4 7-97,-4 11-49,0 0-1,0 0 1,-1 1-1,0 0 1,1-2-1,-2 0 0,-7-2 0,6 3 3,0 1 19,-6 2 33,6 2-12,-1 0-1,1 0 0,-1 0 1,1 1-1,0-1 0,-1 1 0,1-1 1,-3 2-43,-6 9 201,2 2-31,-3 1 51,6-6-91,-1 0 33,-2 9 139,-18 56 461,22-56-627,1-2-43,-1 3 7,1 0-46,3-10-52,1-2 0,0 1 0,1 0 0,0 5-2,0-8-9,0-1 1,0 1-1,1-1 1,-1 2 0,1-2-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,1-1-1,0 0 1,0 1 0,0-1-1,0-1 1,0 1-1,1 0 1,-1-1 0,1 0-1,1 3 9,4 0 2,-1 0 0,1 0 0,0-1-1,0 0 1,1 0 0,0-1-2,23 7-40,1-4-36,1-1-43,0-3-47,0-2-54,-1 0-59,-32 0 267,26-2-32,-6-6 84,-16 6-20,-1 1-2,-1 0-1,0 0 1,0-1-1,0 0 0,0 1 1,0-2-1,0 1 1,0-1-18,0 1 10,-1-1 0,0 1 1,0-1-1,1-1 0,-1 1 0,-1 0 1,2 0-11,7-26-4,-2-3-84,-1 0-85,4 3-94,-8 21 253,1-2-47,9-34-269,-9 26 218,-3 1 27,-1 14 71,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0 13,4-6-16,2-8 13,-5 1 43,0 5-19,-2-9 97,1 19-115,0 1 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0-1 0,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0-3,-18 3-26,5 4 57,4 6 45,3 4 35,2-1 82,1-5-50,-3 4 17,-1 1-66,3 1-67,3 5-59,3 11-90,0-6 16,-1-24 100,0 2 0,0-1 0,1 0-1,0-1 1,-1 2 0,2 0 6,-1-2-18,0-1 0,0 1 1,0 0-1,1 0 0,-1-1 0,1 1 1,0-1 17,6 8-108,1-2-37,1 0-43,1 0-47,-2-2 49,1 0-50,0-1-46,-1 0-43,1-1-38,-1 0-33,10 1-483,5-1-287,35 0-1715,-33-4 1445,14 0-824</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="327.125">993 550 8448,'0'0'1121,"0"0"-430,0 0-179,0 0-79,0 0-92,0 1-78,0-1-25,-2 2 35,-7 7 415,8-7-430,0-1-65,0 1-55,1-1-47,0 1-32,0 0-40,1 2-52,-1-3 46,0 0 49,1 12 25,4 2-48,0 0-27,-2 0-6,9 28-6,-3-14 18,2 6 66,-9-31-58,0-1 0,0 2 0,0-1-1,0-1 1,1 1 0,-1 0-1,3 1-25,-4-3-120,1-1 73,-1 1 67,0 0 61,1 2 52,-1-2 47,2 2 289,-2-1-24,1 0 683,-2-4-745,0-1-36,-1-1-52,-1-2-68,-2-5 131,-1-6 156,3-1-116,2 9-282,0-3-34,-1-11-1,2-3-105,0 22 9,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,0-2 0,-1 2 0,1 0 0,0 0 15,19-21-174,-9 14 44,0 0-40,5-3-135,1 2-110,-6 2 41,0 1-74,-3 3-20,0-2-53,0 3-45,0-1-38,13-5-957,13-1-900,-9 4 506,1 1-52</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="879.704">1456 58 6528,'0'-1'239,"0"-1"71,0 1 59,0-1 49,0 0 422,0 1 1228,0 1-1410,0 1-102,0-1-328,0 1-40,0 0-44,0 0-48,0 0-53,0 1-106,0 0-118,0-1 44,0 2-34,1 6 360,-1 0 13,0-1-28,-1 1 7,-1 2 44,-1 3-100,-3 20 95,4-17-98,2 2 51,0 27 114,0 7-69,0 1-66,0-5-63,1 0 129,4 22-218,4 5 97,-1-40-92,-3-18-30,1 0 0,1 0 1,5 7 24,-11-23 4,-1 0 1,1-1 0,0 1 0,0 0 0,0-1 0,0 2 0,1-2 0,-1 1 0,0-1 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 2-1,0-2 1,0 0 0,2 1-5,-2-1 0,1 1-1,0 0 0,-1-1 1,1 0-1,0 1 1,0-1-1,-1 0 0,1-1 1,0 1-1,-1 0 1,1-1-1,1 0 1,18-10-82,-14 7 33,10-6-211,-10 6 84,0-1-34,0-1-35,1 1-39,-1-2-40,1 0-44,3-3-199,-3 4 145,-2 1 16,1 0-70,-2 0 12,1 1-72,1 1-83,-1-1-94,5-3-506,2 0-452</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1598.726">1906 592 6144,'0'0'804,"0"0"-308,0 0-129,0 0-56,0 0-65,0 0-57,1-1-16,0-2 25,8-16 303,-7 15-210,-1 1-100,-1-1-66,0 2-66,0 0-32,1 1 69,2-1 60,0 0-50,0 1 11,-2-1 66,0-1 6,-1 1 76,0-1 91,0-1 107,0-4-162,-1 2 44,-1 0 110,-4-1 274,-3 1 3,2 3-274,-1 0-110,0-1-41,0 1-137,-3-1 97,9 3-226,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 1-1,-1-1 0,0 1 1,0-1-42,-12 8 190,3 1-64,10-6-108,-1-1 1,0 0-1,0 0 1,1 2 0,-1-2-1,1 1 1,0 0-1,0-1 1,0 1-1,0 1 1,0-1-1,0 1-18,-10 25 8,1-3-26,9-24 13,0 0 0,1 2 0,0-2 0,-1 0 0,1 1 1,0-1-1,0 0 0,1 0 0,-1 2 0,0-2 0,1 1 5,4 10-26,2 2-69,4 3-84,3 1-155,-7-15 63,1-2 56,9-3-97,-9 1 166,11-2-19,-1-2 33,3-8 42,-5 0 117,-10 5 31,0-2 32,3-4 144,-3-3 115,-4 7-126,0 1 35,-1-1 35,-1 0 39,0 2-67,0 2-46,0 1-39,0-1-34,0-2 55,0-8 143,-1 7-145,-2 2-70,-1 5-58,-1 3-46,-3 6-58,7-7 23,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,1 0-1,0 0 1,-1 2 0,1-2-1,0 0 1,0 0-1,-1 1 11,1 7-45,0 6-121,1 1-89,0 0-73,1-1-54,-1-11 251,-1 0 0,2 1 0,-1-1 0,0-1 0,1 1 0,0 1 0,-1-1 0,1-1 0,1 0 0,-1 1 0,1 0 0,-1-1 0,1 0 131,7 7-409,2-2 68,1 0 71,2-4 72,-1-2 73,1-3 77,-1-6 77,-1-2 79,-6 0-2,1 0 64,-1-1 55,-1 0 46,5-9 305,-9 13-408,0 1 0,0 0-1,-1-1 1,0 1 0,1 0 0,-2-1 0,1 1 0,-1 0 0,1-1-168,-2-15 559,1 2-102,-3-4-9,1 16-309,1 2 1,-1-1-1,0 0 0,-3-5-139,1 4 53,1 5-42,0 10-91,2 6-60,1 7-141,0-13 115,4 21-430,-3-27 498,0 1-1,0 0 1,1 1-1,-1-1 1,1-1-1,0 1 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,1 0 0,-1 0 1,4 1 98,12 7-448,2-5 111,1-3 92,0-4 69,5-4 27,-13 2 57,0-1-1,-1 0 1,5-4 92,-5 2 21,-8 5-38,-1 0 0,1-1 1,-1 1-1,1-2 0,2-2 17,1-4 54,-2 0 110,-3 3-29,-1 2 42,0-2 49,0 0 52,-2 2-79,-1 3 162,0 3-199,0 1-42,0-1-73,-1 2-36,1-1-37,-4 4 104,4-4-63,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1 1 0,-1 0-1,1-1 1,0 0 0,-1 1-16,0 6 36,-1 0-42,-1 10-110,0 6-164,2 8-298,2-25 251,0 1 36,1 3-141,5 15-510,-3-20 613,0 1-46,0-2-11,0 2-58,0-1-70,1 0-80,-4-7 545,7 14-1121,-3-8 537,0-2-44,5 0-498,7-3-716</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1859.061">2726 3 7552,'-4'-1'784,"0"1"-60,-1 0-58,1 0-56,-1-1-70,1 1-46,0 0-44,-1 0-41,1 0-38,-1 0-35,-3 1 238,0 1-111,1 1-90,0 3-69,2 0-48,-2 6 37,0 0-64,0 2-53,0 1-45,-5 12 21,-12 29 41,11-19-100,5-3-35,4-1-36,1 0-40,0-1-36,1-15 27,0 0-69,1-6-20,-1 1-38,1 1-37,0-3-36,0 2-35,1 0-34,-1-2-35,1 2-33,0 3-201,0 0-55,0-1-67,0 0-76,0-3 94,0 1-43,0 2-187,0 6-495</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2047.543">2488 565 8960,'-10'-11'1249,"1"0"-101,4 7-619,0-1-35,1 1-37,0-2-41,2 4 187,1 2 101,1 0 183,0 0-345,0 0-89,0 0 107,0 0-150,0 0-68,1 0-93,1-2-71,4-3-31,2 2-49,0 0-41,2 2-36,10-1-56,-16 1-73,0 0 65,-1 0 53,2-1 69,0 0-11,-1 0-115,0 2-90,-2-1 24,1 1-33,2-1-181,1 1-121,-3 0 174,1 0-36,0 0-39,0 0-39,7 0-347,4 0-62,1 0-65,2 0-67,-4 0 137,2 0-36,31 0-1781</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2966,6 +3095,62 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-07-04T19:03:23.555"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13 0 5376,'-2'5'339,"-4"7"569,5-8-633,-1-1-39,1 1-79,1-1-48,-1 0-54,1 1-65,0-3-100,0-1-35,0 1-240,1-1-112,0 0-94,1 0 63,0 0-39,1 0-152,1 0-400</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-07-04T19:03:23.563"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13 0 5376,'-2'5'339,"-4"7"569,5-8-633,-1-1-39,1 1-79,1-1-48,-1 0-54,1 1-65,0-3-100,0-1-35,0 1-240,1-1-112,0 0-94,1 0 63,0 0-39,1 0-152,1 0-400</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2018-06-21T13:57:14.701"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -2974,11 +3159,11 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 80 5888,'-4'-10'770,"1"5"-295,1 1-121,0 1-55,1 1-60,1 0-51,-1-3 249,1 4-462,1-1 115,-1-1 103,1-1 88,-1-3 155,0 1 84,-1-1 183,-2-1 427,0 5-961,-3-2 25,4 2 51,2 3-101,0 5-37,0 0-101,0 3 47,-1 3 88,1 2 57,3 27 529,-2-35-658,5 25 982,0 21-1051,8 92 933,-9-92-696,-1-5-90,-2 8 7,-2-4-44,2 27 21,3-20-28,-2-22-41,-1-14-69,-1-3-48,-1-1-59,0-2-115,-1-1-59,1-5 67,0-1-40,0 1-45,0-1-51,0 0-58,1 0-63,0 0-70,0 0-76,1-2-56,0 0-67,1 1-215,1 2-553</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 86 5888,'-4'-11'770,"1"6"-295,1 0-121,0 2-55,1 1-60,1 0-51,-1-4 249,1 5-462,1-1 115,-1-1 103,1-1 88,-1-4 155,0 2 84,-1-2 183,-2 0 427,0 5-961,-3-3 25,4 3 51,2 3-101,0 5-37,0 1-101,0 2 47,-1 4 88,1 2 57,3 29 529,-2-38-658,5 27 982,0 23-1051,8 98 933,-9-98-696,-1-6-90,-2 9 7,-2-5-44,2 30 21,3-22-28,-2-24-41,-1-14-69,-1-4-48,-1-1-59,0-2-115,-1-1-59,1-5 67,0-2-40,0 2-45,0-1-51,0-1-58,1 1-63,0-1-70,0 1-76,1-3-56,0 1-67,1 0-215,1 3-553</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3002,11 +3187,11 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 1 6784,'-2'1'640,"-1"1"-44,1 0-43,0 0-40,0 0-39,0 1-38,1 0-36,-1 0-36,0 3 268,1 1-123,0 0-109,1 0-97,0-1-123,0 0-48,0 0-44,1 0-35,0 1-30,0-1-32,3 12-113,0-3 87,0 1 78,-1 0 63,2 3 82,0 10 170,-2 0 11,-3-10-158,-1-3-78,-1-1-55,-1 4 41,-1 1-73,2-9 14,1 1-45,1 3-37,1 7-54,0 7 3,-1 7 162,0 0-56,0 82-90,0-68 62,0-20 35,0 0 42,2-8-138,3 0 39,-3-14 21,-1 1-1,0 0 1,0 0-1,0 0-3,-1-3 29,0 6 86,0-11-113,0-1 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 0-2,-1 0 24,0 0-60,1 1-56,-1 0-52,1 0-123,0-1-76,-2 0-65,0-2-54,2 1-62,0 1-55,0-1-61,0 0-70,2-2-345,-1 0 138,2-2-519</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">22 1 6784,'-2'1'640,"-2"1"-44,2 0-43,0 1-40,0-1-39,0 1-38,1 0-36,-1 0-36,0 4 268,1 0-123,0 1-109,1 0-97,0-2-123,0 0-48,0 1-44,1-1-35,0 2-30,0-2-32,3 14-113,0-4 87,0 1 78,0 0 63,1 4 82,0 10 170,-2 1 11,-3-12-158,-1-3-78,-1-1-55,-1 5 41,-1 0-73,2-9 14,1 1-45,1 3-37,1 8-54,0 7 3,-1 8 162,0 0-56,0 88-90,0-73 62,0-21 35,0-1 42,2-8-138,3-1 39,-3-14 21,-1 1-1,0-1 1,0 1-1,0 0-3,-1-4 29,0 7 86,0-12-113,0-1 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 2 0,-1-2 1,1 0-1,0 0 0,0 0 0,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 0-2,-1 0 24,0 0-60,1 1-56,-1 0-52,1 0-123,0-1-76,-2 0-65,0-2-54,2 1-62,0 1-55,0-1-61,0 0-70,2-3-345,-1 1 138,2-2-519</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3030,11 +3215,11 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 6784,'0'0'928,"0"0"-356,0 0-148,0 0-66,0 0-75,0 0-61,0 0 287,0 0-123,0 0 294,0 0 19,0 0-288,0 0-54,0 0-76,0 1-66,0 0-56,0 1 21,0-1-107,0 4 37,0-3-38,0 0 43,1 8 173,0 2-95,1-4-101,1 1-36,2 8-24,4 18-75,-6-20 71,5 57-28,-2 43 0,-6-109-107,0 1 42,0 6 36,0 3 133,0 8 196,0-1-32,0-8-189,0-3-120,0-6-26,0 0-37,0 3-161,0-4 85,0-1-34,0 1-38,0-1-39,0 0-42,0 0-44,0-5-179,0 0-94,0-1-220,0 0-536</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 6784,'0'0'928,"0"0"-356,0 0-148,0 0-66,0 0-75,0 0-61,0 0 287,0 0-123,0 0 294,0 0 19,0 0-288,0 0-54,0 0-76,0 1-66,0 0-56,0 1 21,0-1-107,0 5 37,0-4-38,0 0 43,1 9 173,0 1-95,1-3-101,1 1-36,2 8-24,4 19-75,-6-21 71,5 61-28,-2 46 0,-6-117-107,0 2 42,0 6 36,0 3 133,0 8 196,0 0-32,0-9-189,0-3-120,0-7-26,0 1-37,0 2-161,0-3 85,0-2-34,0 1-38,0-1-39,0 1-42,0-1-44,0-5-179,0 0-94,0-1-220,0 0-536</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3058,14 +3243,14 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 82 6272,'0'0'838,"0"0"-322,0 0-134,0 0-60,0 1 570,0 0-104,0 2-111,0 0-119,0 0-125,0-1-267,0-1-33,0 1-36,0-1-37,0 0-36,-1 0-38,-2 6 182,1 2-59,1 2-40,-1 6-43,0 7-4,-1-7-31,3-9-11,0 0 1,0-1-1,1 1 0,1 5 20,7 17-11,-3-18 48,3-1 41,-5-8-107,1-1 38,6-1 99,-1-3 45,5-3 134,0 1 28,-6 2-144,4 0 24,-2-1-56,1 2-84,-11 1 9,0 1-33,0 1-56,1 1-55,1-3-49,-3 0 293,1 0-59,-1 0-57,1 0-55,0 0-50,-1 0-49,1 0-46,-1-1-44,0 1-40,1 0-38,0-1-377,-1 1-120,1-1-98,0 0 127,-1 1-38,4-3-3042,-3 2 3105,1 0 42,-1 0-92,1-1-338,-2 2 1105</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="369.823">21 176 6144,'0'-2'545,"0"1"110,-1 0 58,-1-1 1027,1 2-1236,0 0-37,1 0-41,-1 0-64,0 0-77,-1 0-92,2 0-128,-1 0-38,1 0-44,-1 0-44,1 0 395,0 0-75,0 1-66,0 0-54,-2 1 19,-2 1 30,3-2-59,1-2 87,0 5 17,2-1-43,1-1-39,1 0-34,5 0 29,2-2-88,20-5-76,-22 2 63,27-5-146,-23 6-33,-6 1 19,-1 0-41,2 0-119,0-1-94,-1 1-109,1 0-123,-1 0-282,-5 1 438,0 0 147,-1 0-49,1 0-60,-1 0-70,0 0 113,0 0-39,0 0-42,0 0-46,2 0-615,1 0-593</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="683.987">15 120 6656,'-2'0'963,"-1"-1"-65,1 1-67,1-1-64,-1 0-65,1 0-64,0 0-64,1 0-63,0 0-64,0-1-62,0 1-63,0-1-61,1 1-61,0-1-62,0 1-60,1-1-60,-1 1 137,0-1-45,0 0-13,0 0-56,1-3-9,-1 3 13,5-2 73,0 0-50,1 1-55,1 1-58,0 1-60,0 1-66,1 0-67,-1 1-72,1 0-75,0 0-78,0 1-82,-1 0-86,0 0-88,0 0-93,-1 0-95,0-1-100,1 2-205,3 1-674</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1585.582">253 264 6784,'0'0'522,"0"0"-63,0 0-59,0 0-55,0 0-52,0 0-48,0 0-43,0 0-40,-1-1 45,1 1-100,-1 0-78,1-1-40,-1-1-115,1 1 119,-1 0 89,1 0 7,0 1 38,0-1-143,1 0 62,-1-1 52,1 1 43,0-2 168,0-3 513,-1 3-612,-1 1-49,-1-8 254,-1 1-96,1-1-86,1 0-74,-1-5-36,1 0-88,3-33-132,0 38 109,-1 0 37,2-17-15,0-1 70,-1 7-145,-2 19 31,0 0 0,0-1 0,0 1-1,1 0 1,-1 0 0,1-1-1,-1 1 1,1 0 0,1-2 10,-1 3 35,1 5-34,2 11-59,0 8-27,-2-8 82,-1-9 49,2 7 46,-1 1-46,1 1-37,12 44-83,-11-44 112,1 0 64,-4-12-31,1 0 38,-1 0 39,1-1 42,0 1 143,0 0 90,-1 0 97,-1 2 102,0-4 242,3-2-130,0-1-113,-1-1-112,0-1-109,-1 0-107,0 0-106,0 0-103,-1 2-101,0-4 22,1 0 1,0 0-1,0-1 0,0 1 1,1 0-6,3-14-1,-3 10-29,2-10 62,-3 14-53,1 0-39,0-1-73,1 0-88,0 1-109,-2 2 119,1 1-36,-1 0-104,0 0-77,0 1-72,0-1-70,0 1-65,-1-1-61,1 0-58,-1 0-53,1-2-484,1-1-345,2-5-930</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 91 6272,'0'0'838,"0"0"-322,0 0-134,0 0-60,0 1 570,0 0-104,0 3-111,0-1-119,0 0-125,0-1-267,0 0-33,0 0-36,0-1-37,0 0-36,-1 0-38,-2 7 182,1 2-59,1 2-40,-1 7-43,0 8-4,-1-8-31,3-11-11,0 1 1,0-1-1,1 1 0,1 5 20,7 20-11,-3-21 48,3-1 41,-5-8-107,0-2 38,7-1 99,-1-3 45,5-4 134,0 2 28,-7 1-144,5 1 24,-2-1-56,1 2-84,-11 1 9,0 1-33,0 1-56,1 1-55,1-3-49,-3 0 293,1 0-59,-1 0-57,1 0-55,0 0-50,-1 0-49,1 0-46,-1-1-44,0 1-40,1 0-38,0-1-377,-1 1-120,1-1-98,0 0 127,-1 1-38,4-3-3042,-3 2 3105,1-1 42,-2 1-92,2-1-338,-2 2 1105</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="369.823">21 195 6144,'0'-2'545,"0"1"110,-1 0 58,-1-1 1027,1 2-1236,0 0-37,1 0-41,-1 0-64,0 0-77,-1 0-92,2 0-128,-1 0-38,1 0-44,-1 0-44,1 0 395,0 0-75,0 1-66,0 0-54,-2 1 19,-2 2 30,3-3-59,1-2 87,0 5 17,2-1-43,1 0-39,1-1-34,5 0 29,2-2-88,19-6-76,-21 3 63,26-6-146,-22 7-33,-6 1 19,-1 0-41,2 0-119,0-2-94,-2 2-109,2 0-123,-1 0-282,-5 1 438,0 0 147,-1 0-49,1 0-60,-1 0-70,0 0 113,0 0-39,0 0-42,0 0-46,2 0-615,1 0-593</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="683.987">15 133 6656,'-2'0'963,"-1"-1"-65,1 1-67,1-1-64,-1 0-65,1 0-64,0 0-64,1 0-63,0-1-64,0 0-62,0 1-63,0-1-61,1 1-61,0-1-62,0 0-60,1 0-60,-1 1 137,0-1-45,0 0-13,0-1-56,1-2-9,-1 3 13,5-3 73,0 1-50,0 0-55,2 2-58,0 1-60,0 1-66,1 0-67,-1 1-72,1 0-75,0 0-78,-1 2-82,0-1-86,0 0-88,0 0-93,-1 1-95,0-2-100,1 2-205,2 1-674</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1585.5819">249 293 6784,'0'0'522,"0"0"-63,0 0-59,0 0-55,0 0-52,0 0-48,0 0-43,0 0-40,-1-1 45,1 1-100,-1 0-78,1-1-40,-1-1-115,1 1 119,-1-1 89,1 1 7,0 1 38,0-1-143,1 0 62,-1-1 52,1 1 43,0-3 168,0-2 513,-1 2-612,-1 2-49,-1-9 254,-1 1-96,1-1-86,1 0-74,-1-6-36,1 1-88,3-38-132,0 43 109,-1 0 37,2-19-15,0-1 70,-1 8-145,-2 21 31,0-1 0,0 0 0,0 1-1,1 0 1,-1-1 0,1 0-1,-1 1 1,1 0 0,1-3 10,-1 4 35,1 5-34,2 13-59,0 9-27,-2-10 82,-1-9 49,2 7 46,-1 2-46,0 1-37,13 48-83,-11-48 112,1-1 64,-4-12-31,1-1 38,-1 0 39,1 0 42,0 0 143,0 0 90,-1 1 97,-1 1 102,0-4 242,3-2-130,0-1-113,-1-1-112,0-2-109,-1 1-107,0-1-106,0 1-103,-1 2-101,0-5 22,1 0 1,0 1-1,0-2 0,0 1 1,1 1-6,3-17-1,-3 12-29,1-11 62,-2 15-53,1 1-39,0-2-73,1 0-88,0 1-109,-2 3 119,1 1-36,-1-1-104,0 1-77,0 1-72,0-1-70,0 0-65,-1 0-61,1 0-58,-1-1-53,1-1-484,1-2-345,2-5-930</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3093,7 +3278,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3117,14 +3302,14 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 53 6784,'0'5'895,"0"-3"-344,0 0-141,0 0-64,0-1-71,0-1-58,0 1 283,0-1-122,0 0 290,0 0 34,0 0-263,0 0-48,0 0 135,0 0-133,0 0-104,0 0-89,0 1-71,0 0-40,0 1-21,0 0 29,0-1 101,1 0-45,-1-1 45,4 10 49,-1 1-60,-1 1-50,-1 1-43,0 8-9,-1 9-35,0-17-29,0 4 7,1 16 13,1-23-70,2 0-38,-1 1 36,-3-10 34,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0-1 1,0 1-1,0 0-2,9 2-4,-9-3-5,1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,-1 1 1,2-1 9,12-2-86,1 0 64,0 0 50,-1 0 36,-9 2-84,8 0 98,-9 1-102,1 0-85,-3 0 11,-1 0-35,2 1-99,-1-1-75,0 0-87,0 0-95,-2 0-38,0-1 49,0 1 41,0 0 36,0-2-402,1-2-915,-2 2 1024,0 1 90,1 0-82,-1 0-103,0 0-122,0 0 158,0 0 42,0-1-101,0 0-362</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="270.337">8 229 6144,'0'0'838,"0"0"-322,0 0-134,0 0-60,0 0 176,0 0-82,1-1-71,-1 1-60,0-1-24,1 0-46,1-1 354,-1 1-293,-1 0-76,1 1 37,1-3 487,0 1-122,0-1-111,0-1-98,0 1-128,0 1-55,0-1-51,1 0-41,0-1-22,0 1-37,7-3 13,3 2-24,-3 2-45,-2 1-30,1 0-32,5 1-134,-8 1 44,1 0-39,16 0-1039,-18-1 925,-1-1-39,0 1-34,1-1-57,-1 1-66,1 0-77,2-1-541,1 0-109,-2-3 157,5-3-621</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="500.658">2 72 6144,'-1'1'833,"1"0"-75,0-1-70,0 1-67,1 0-65,0-1-60,0 1-59,0-1-53,1 1-51,-1-1-48,1 0-44,0 0-41,0 1-37,1-1-35,2 0 39,-1 0-103,0 0-53,16-1-193,-15 1 212,-3 0 26,-1-1 37,4 0-192,0 0-43,4-3-235,-1 0 22,3-3-224,-11 7 569</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6486.661">234 35 5504,'-2'2'897,"0"0"-296,0 0-45,0-1-41,1 1-40,-1 0-39,1 0-36,0 2 301,1-3 222,0-1-49,0 0-100,0 0-432,0 0-55,0 0-78,0 0-61,5-3 182,-4-3-109,1-1-111,2 5-104,-3 1-4,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0-2,4-4 10,13-5-30,-11 8 2,-1 0 0,0 0-1,1 0 1,-1 1 0,1 0 0,-1 0 0,3 1 18,8 0 8,-1 3 51,-2 2-40,-10-3 5,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1-1,1 3-23,2 5-1,-3-2 89,-3 3-52,-3 20-42,0-14 24,-12 31-57,6-28 56,2-3 53,-2 0 77,7-12-35,0 0 59,0 0 24,-8 12 667,6-13-683,-1-1-56,2-1-9,0 2 103,0 0-6,0-2-118,-7 6 318,10-8-402,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 1 0,-1-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 1-9,4 1 108,1-1-40,1 0-45,-1-1-51,58 6 289,-55-6-256,0 1 34,17 0 178,-14 1-150,2-1-70,-3 1-102,-5-1 7,1-1-36,-1 1-38,0 0-44,0 0-47,1 0-50,-2-1-79,-1 1-97,1-2-86,-1 1-75,0-1-215,1-1-74,0-2-261,3-3-681,0-1 243,4-7-756</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 59 6784,'0'5'895,"0"-3"-344,0 1-141,0-1-64,0-1-71,0-1-58,0 1 283,0-1-122,0 0 290,0 0 34,0 0-263,0 0-48,0 0 135,0 0-133,0 0-104,0 0-89,0 1-71,0 0-40,0 1-21,0 1 29,0-2 101,1 0-45,-1-1 45,4 11 49,-1 1-60,-1 1-50,-1 2-43,0 8-9,-1 10-35,0-18-29,0 3 7,1 19 13,1-26-70,2 0-38,-1 1 36,-3-11 34,0 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,0-1 1,0 1-1,0 0-2,9 3-4,-9-4-5,1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,-1 1 1,2-1 9,12-3-86,1 1 64,0 0 50,-2-1 36,-8 3-84,8 0 98,-9 1-102,1 0-85,-3 0 11,-1 0-35,2 1-99,-1-1-75,0 0-87,0 0-95,-2 0-38,0-1 49,0 1 41,0 0 36,0-2-402,1-3-915,-2 3 1024,0 1 90,1 0-82,-1 0-103,0 0-122,0 0 158,0 0 42,0-2-101,0 1-362</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="270.337">8 253 6144,'0'0'838,"0"0"-322,0 0-134,0 0-60,0 0 176,0 0-82,1-1-71,-1 1-60,0-1-24,1 0-46,1-1 354,-1 1-293,-1 0-76,1 1 37,1-4 487,0 2-122,0-1-111,0-2-98,0 2-128,0 1-55,0-1-51,1-1-41,0 0-22,0 1-37,7-4 13,2 2-24,-2 3-45,-2 1-30,1 0-32,5 1-134,-8 1 44,1 0-39,16 0-1039,-19-1 925,0-1-39,0 1-34,1-1-57,-1 1-66,1 0-77,2-1-541,1 0-109,-2-4 157,5-2-621</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="500.658">2 80 6144,'-1'1'833,"1"0"-75,0-1-70,0 1-67,1 0-65,0-1-60,0 1-59,0-1-53,1 1-51,-1-1-48,1 0-44,0 0-41,0 1-37,1-1-35,2 0 39,-1 0-103,0 0-53,15-1-193,-14 1 212,-3 0 26,-1-1 37,4 0-192,0 0-43,4-3-235,-1-1 22,3-3-224,-11 8 569</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6486.661">231 39 5504,'-2'2'897,"1"0"-296,-1 0-45,0-1-41,1 2-40,-1-1-39,1 0-36,0 2 301,1-2 222,0-2-49,0 0-100,0 0-432,0 0-55,0 0-78,0 0-61,5-4 182,-4-2-109,1-2-111,1 6-104,-2 1-4,-1 1 0,1 0 0,0-2 0,0 2 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0-2,4-5 10,13-5-30,-11 9 2,-1 0 0,0 0-1,1-1 1,-1 2 0,1 0 0,-1 0 0,3 1 18,7 0 8,0 3 51,-2 3-40,-10-4 5,-1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 1 0,0 0-1,1 2-23,2 6-1,-3-2 89,-3 3-52,-3 23-42,0-17 24,-12 36-57,6-32 56,2-3 53,-2-1 77,7-12-35,0 0 59,0-1 24,-8 14 667,6-15-683,-1 0-56,2-2-9,0 2 103,0 1-6,1-3-118,-8 7 318,10-9-402,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 1 0,-1-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 1-9,4 2 108,1-2-40,0 0-45,0-1-51,58 6 289,-55-6-256,0 2 34,16-1 178,-13 1-150,2-1-70,-3 1-102,-5-1 7,1-1-36,-1 1-38,0 1-44,0-1-47,1 0-50,-2-1-79,-2 1-97,2-2-86,-1 1-75,0-1-215,1-2-74,0-1-261,3-4-681,0-1 243,4-7-756</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3148,11 +3333,41 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 13 7808,'0'-3'453,"1"0"116,0 1 221,1-1 505,1 2-31,-2 2-528,1 1-233,-1 0-300,-1-1-38,2 4 388,0 0-70,0 0-64,0 0-58,0-1-53,0 1-47,1 0-41,-1 0-36,3 6 128,6 15 203,50 119 1222,-5-14-190,-33-64-738,-6 4 47,-8-8-143,-4-16-108,-3 1 36,-3-24-207,0-1 1,-2 0-1,0 3-434,-1-6 406,-1-1 1,-3 6-407,0-1 771,-12 22-771,4-16 290,-4 2-57,10-16-167,-1-2-40,3-6-310,5-6 139,0 0-50,1-1-15,-1-1-54,1 1-61,0-1-70,1 0-248,1 0 67,-1 0 62,1-1 59,0 1 53,0 0 50,0 0 46,-1-1 40,1 1 13,0 0 40,0-1-114,1 0 94,-1-1-223,1 1 275,-1 1-47,0-1-130,0 1 137,1 0-34,-1-1 158,1-1-945,1-1-96,1-2-320,1-1-834</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 14 7808,'0'-3'453,"1"-1"116,0 2 221,1-1 505,1 2-31,-2 2-528,1 1-233,-1 0-300,-1-1-38,2 5 388,0-1-70,0 0-64,-1 1-58,1-2-53,0 1-47,1 1-41,-1-1-36,3 7 128,6 15 203,48 127 1222,-4-14-190,-33-69-738,-6 5 47,-7-9-143,-4-17-108,-3 1 36,-3-26-207,0 0 1,-2-1-1,0 4-434,-1-7 406,-1-1 1,-2 7-407,-1-2 771,-12 24-771,5-17 290,-5 2-57,11-17-167,-2-2-40,3-6-310,5-7 139,0 0-50,1-1-15,0-1-54,0 1-61,0-1-70,1 0-248,1 0 67,-1 0 62,1-1 59,0 1 53,0 0 50,0 0 46,-1-1 40,1 1 13,0 0 40,0-1-114,1 0 94,-1-1-223,1 0 275,-1 2-47,0-1-130,0 1 137,1 0-34,-1-1 158,1-1-945,1-1-96,1-2-320,0-2-834</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-06-21T12:38:34.307"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">106 600 9216,'-3'1'315,"0"0"-51,0 0 0,-1 0 66,-1 0 36,2 0-87,0 0 1,0 0 65,-1 0 4,1 1 68,-2 0 78,0 2 89,-15 7 226,4 3-351,6-5-249,2 2-82,2 0-102,5-6-58,0 1-33,1 3 43,1 17-114,0-25 125,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1-1 1,0 1-1,-1 0 1,1 1-1,0-1 1,-1-1-1,1 1 1,0 0-1,0-1 1,-1 1-1,1-1 1,1 1 10,20 8-213,0-3 73,1-4 58,0-1 46,-8-1 42,0 1 1,11 3-7,-21-3 1,0 0-1,1 1 1,-1-1-1,0 1 1,0 2-1,0-2 0,0 1 1,-1 0-1,3 1 0,1 3 29,18 15 20,-10-7 33,-7-3 26,-1 1 63,-2 0 79,-2 3 96,-3-7-232,-1-1 101,0 1 85,-2-1 71,-2 2 194,2-5-268,1-1 0,-1-1 0,-1 1 1,1-1-1,-1 1 0,0 1-297,-7 4 716,1-1-171,4-4-321,0-2-39,-4 3 241,-1 1-71,3-2-119,-1-1-38,-7 5 96,-1 1-117,0-3-94,-10 4-84,19-9-30,1 1-1,-1-1 1,1 0 0,-7-1 31,11 0-32,-8 0-141,3 0-19,0 0-55,1 0-108,1 0-43,0 0-109,3 0 207,0 0-33,-1 0-36,1 0-37,1 0-625,1-2 456,1 0-54,1-2-62,1-2-56,1-1-46,1 1-37,3-6-549,8-5-756</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="316.343">543 0 8960,'0'6'827,"0"1"-65,0-1-61,0 1-59,1 4 193,-1 0-113,0 1-105,0 0-96,0-1-89,-1 1-81,0-3-73,0 1-65,-4 16 98,1-1-96,2 3-77,2 7-61,0-13-58,0 12-1,-3 21-18,0-22 0,-1 2 0,1 1 0,2 1 0,-1 39 0,-4-4 0,14 54 11,-7-101-14,0-11 22,0 0-1,2-1 1,1 10-19,3-1-32,2-2-62,3-2-87,3-3-109,-9-10 132,1 1-39,-1-2 28,-2-1-7,1 0-40,-1-1-1,0-1-39,0 0-44,0 0-48,9-3-299,-4 0 129,-3 0 145,-1 1-52,2 0-167,-1 0-72,0 1-202,4 0-510</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="495.075">358 698 11648,'-19'-5'1517,"8"1"-581,3 2-243,2 1-106,3 0-60,2 1-96,-1 0-87,1 0-77,0 1-94,0-1-41,0 1 32,1 1-94,0 3-5,1-4-8,-1 0 47,1 0 67,-1-1 81,1 1 101,-1-1 115,7-1 74,0 1-141,1 0-58,1 1-79,0 1-102,3 2-17,-6-2-113,0-1-34,1 0-41,0 1-46,0 0-54,0-2-58,3 0-170,-5 0 137,0 0-33,0-2-37,0 1-38,0 0-39,0 0-43,4-2-186,0-1-39,0 0-41,0-1-40,4 0-377,-4 1 217,-1 1-39,2-1-223,4-2-617,-13 6 1720</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3180,7 +3395,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3208,37 +3423,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2018-06-21T12:38:34.307"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">106 569 9216,'-3'1'315,"0"0"-51,0 0 0,-1 0 66,-1 0 36,2 0-87,0 0 1,0 0 65,-1 0 4,1 1 68,-2 0 78,0 1 89,-15 8 226,4 2-351,6-4-249,2 1-82,2 0-102,5-5-58,0 1-33,1 2 43,1 17-114,0-24 125,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,-1 1-1,1-1 1,1 1 10,20 8-213,0-4 73,1-3 58,0-1 46,-8-1 42,0 1 1,11 3-7,-21-3 1,0 0-1,1 1 1,-1-1-1,0 1 1,0 1-1,0-1 0,0 1 1,-1 0-1,3 1 0,1 2 29,18 15 20,-10-6 33,-7-4 26,-1 1 63,-2 1 79,-2 2 96,-3-7-232,-1 0 101,0 0 85,-2 0 71,-2 2 194,2-6-268,1 0 0,-1-1 0,-1 1 1,1-1-1,-1 0 0,0 2-297,-7 4 716,1-2-171,4-3-321,0-2-39,-4 3 241,-1 0-71,3-1-119,-1-1-38,-7 5 96,-1 0-117,0-2-94,-10 3-84,19-8-30,1 1-1,-1-1 1,1 0 0,-7-1 31,11 0-32,-8 0-141,3 0-19,0 0-55,1 0-108,1 0-43,0 0-109,3 0 207,0 0-33,-1 0-36,1 0-37,1 0-625,1-2 456,1 0-54,1-2-62,1-1-56,1-2-46,1 1-37,3-5-549,8-5-756</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="316.343">543 0 8960,'0'6'827,"0"0"-65,0 0-61,0 1-59,1 3 193,-1 1-113,0 0-105,0 0-96,0 0-89,-1 0-81,0-2-73,0 0-65,-4 16 98,1-1-96,2 2-77,2 7-61,0-12-58,0 11-1,-3 21-18,0-22 0,-1 2 0,1 1 0,2 1 0,-1 37 0,-4-3 0,14 50 11,-7-95-14,0-11 22,0 1-1,2-2 1,1 10-19,3-1-32,2-2-62,3-2-87,3-3-109,-9-9 132,1 0-39,-1-1 28,-2-1-7,1 0-40,-1-1-1,0-1-39,0 0-44,0 0-48,9-3-299,-4 0 129,-3 0 145,-1 1-52,2 0-167,-1 0-72,0 1-202,4 0-510</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="495.075">358 662 11648,'-19'-5'1517,"8"2"-581,3 1-243,2 1-106,3 0-60,2 1-96,-1 0-87,1 0-77,0 1-94,0-1-41,0 1 32,1 1-94,0 2-5,1-3-8,-1 0 47,1 0 67,-1-1 81,1 1 101,-1-1 115,7-1 74,0 1-141,1 0-58,1 1-79,0 1-102,3 2-17,-6-2-113,0-1-34,1 0-41,0 1-46,0-1-54,0-1-58,3 0-170,-5 0 137,0 0-33,0-1-37,0 0-38,0 0-39,0 0-43,4-2-186,0-1-39,0 0-41,0 0-40,4-1-377,-4 1 217,-1 1-39,2-1-223,4-1-617,-13 5 1720</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3262,14 +3447,14 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">116 87 7808,'-1'-1'368,"0"-1"-75,1 0 34,-1 0-90,-1-1 144,2 2-179,-1-1 98,1 1-109,0 0 33,0-1 237,0 1-184,-1 0 35,1 0 37,0 0 40,0 0 43,0-1 46,0 2 114,0 0-108,0 0-98,0 0-85,-1 0-105,1 0-47,0-1 40,-1 1-104,-1 0 19,1 0-25,1 0 56,-1 1 77,1-1 96,-1 1 116,1-1-163,0 0 36,-3 7 293,-1 1-81,1-1-75,0 1-68,1 0-63,-1 1-56,1-1-51,-1 1-45,1 1-19,-1 1-44,-1 6-13,-3 24 5,5-29-10,0 0 55,0 3-90,-7 47 56,7-46-82,1 0-1,1 0 0,0 0 1,3 12-9,-3-25-17,1-1 0,-1 1 1,1 0-1,0 0 1,0-1-1,0 1 0,0-1 1,1 1-1,-1-1 0,1 1 17,-1-2-8,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 8,24-3-124,0-3 101,-5 1 96,0 1 94,1 4 108,-11 1-91,1 1 32,4 2 36,4 1 84,-1 1 58,0 3 60,-1 5 62,0 8 8,-5 2-67,-6 2-70,-5 1-77,-5-1-80,-5 0-86,-5-2-91,-4-3-94,14-17 87,1-1-55,-1 0-53,0-1-51,0 0-48,0-1-45,0 1-43,0-1-41,0-1-38,0 1-36,-4-2-459,0 0-112,0-2-91,2 0 107,-1 0-38,2 0 32,1-1 0,-1 1 1,1-1-1,-1 0 0,1 0 925,-4-5-1345,1 1 94,-5-8-633,-6-10-845</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="195.358">3 175 10112,'-1'-2'406,"0"0"64,1 1 56,-1-1 47,1 1 166,1-1 43,1 0 1684,0 1-1252,0 1-76,0 0-443,0 0-69,0 0-166,0 0-65,-1 0-73,1 0-81,0 0-135,-1 0-37,0 0-39,1 1-41,-1-1-43,0 0-46,0 0-46,1 0-50,34-1 403,51-5 355,-55 4-400,0-1-52,1 0-77,-1 1-100,-15 1-11,-1 1-33,0-1-36,0 1-38,0 0-42,-1 1-44,1-1-48,0 2-48,-1-1-54,0 1-54,-1 0-300,-1-1-116,0 0-110,-1 0-103,0 0-113,0 0-88,-6 0 475,-1 0-33,11 3-1844</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="716.97">743 439 8320,'-9'-1'1791,"1"1"-347,1 0-43,0 1-49,-1 0-54,1 0-58,1 2-65,-1 0-68,2 2-76,0-1-697,1 1-36,-5 3 206,3-3-234,0 1-33,-4 3 108,-10 17 388,15-17-473,1 2 39,1-3-179,-4 10 108,0 1-35,2 1-37,2-1-37,1 4-79,2-19-47,1 1-1,-1-1 1,1 0 0,-1 0 0,1 0 0,2 4 7,-3-6-4,1 0-1,0 0 1,0-1 0,0 1 0,0 0-1,1 0 1,-1-1 0,0 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1-1-1,0 0 5,0 0 1,0 0 1,0 1-1,1-2 0,-1 1 0,0 0 1,1 0-1,-1-1 0,3 1-1,-1 0 86,0-1-45,0 0-41,0 0-41,0 0-40,0 0-37,0-1-37,0 1-35,3-2-288,1 0-122,-1-1-109,0 0-99,-2 0 99,0 0-49,1 0-43,-1-1-36,1 0-209,1-1-34,12-10-2259,-14 12 2589,25-21-3623</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1052.076">774 12 7808,'-2'-1'502,"0"-1"118,0 1-17,-1-1 60,-1-1 416,0 1 69,3 2-1065,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0 0-1,0 1 1,0-1-1,-1 0-83,0 2 751,1 2-35,0 1-381,0 0-37,0 3 110,0 0-75,0 0-64,0 0-53,0 7 91,3 23 222,-2-26-302,1 1 83,0 3-92,0 2 44,4 38 666,-3-20-367,-1-13-228,0-3-99,1-1-50,2 24 196,1 2 111,-1 12 204,2 26 459,-6-57-883,0 0-32,1 8 1,-1-17-161,0-1-34,1 18-8,-1-19-45,0-1-62,0-4-27,0-1-53,0-6-125,-1 0 47,1 8-388,-1-7 312,0-1 83,0-1-41,0 1-74,0-1-71,0 1-81,0 0-93,0-2 173,0 1-43,0-1-44,0 1-49,0-1-49,0 1-54,0-1-56,-1 1-58,2-1-310,-1 0-2008,2-1 1790,-1 0 256,1 0 33,5 0-1879</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">116 94 7808,'-1'-1'368,"0"-1"-75,1-1 34,-1 1-90,-1-1 144,2 2-179,-1-1 98,1 1-109,0 0 33,0-1 237,0 0-184,-1 1 35,1 0 37,0 0 40,0 0 43,0-1 46,0 2 114,0 0-108,0 0-98,0 0-85,-1 0-105,1 0-47,0-1 40,-1 1-104,-1 0 19,1 0-25,1 0 56,-1 1 77,1-1 96,-1 1 116,1-1-163,0 0 36,-3 8 293,-1 0-81,1 0-75,0 0-68,1 1-63,-1 1-56,1-2-51,-1 2-45,1 1-19,-1 1-44,-1 6-13,-3 26 5,5-31-10,0 0 55,0 3-90,-7 51 56,7-49-82,1-1-1,1 0 0,0 0 1,3 14-9,-3-28-17,1-1 0,-1 1 1,1 0-1,0 1 1,0-2-1,0 1 0,0-1 1,1 2-1,-1-2 0,1 1 17,-1-2-8,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 8,24-3-124,0-4 101,-5 2 96,0 1 94,1 4 108,-11 1-91,1 1 32,4 2 36,4 2 84,-1 0 58,0 4 60,-1 5 62,0 9 8,-5 1-67,-6 4-70,-5 0-77,-5-1-80,-5 0-86,-5-2-91,-4-4-94,14-17 87,1-2-55,-1 0-53,0-1-51,0 0-48,0 0-45,0 0-43,0-1-41,0-1-38,0 1-36,-4-2-459,0 0-112,0-3-91,2 1 107,-1 0-38,2 0 32,1-2 0,-1 2 1,1-1-1,-1 0 0,1-1 925,-4-4-1345,1 0 94,-5-8-633,-6-11-845</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="195.358">3 189 10112,'-1'-2'406,"0"0"64,1 0 56,-1 0 47,1 1 166,1-1 43,1 0 1684,0 1-1252,0 1-76,0 0-443,0 0-69,0 0-166,0 0-65,-1 0-73,1 0-81,0 0-135,-1 0-37,0 0-39,1 1-41,-1-1-43,0 0-46,0 0-46,1 0-50,34-1 403,51-6 355,-55 5-400,0-1-52,1 0-77,-1 1-100,-15 0-11,-1 2-33,0-1-36,0 1-38,0 0-42,-1 1-44,1-1-48,0 3-48,-2-2-54,1 1-54,-1 0-300,-1-1-116,0 0-110,-1 0-103,0 0-113,0 0-88,-6 0 475,-1 1-33,11 2-1844</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="716.97">742 474 8320,'-9'-1'1791,"1"1"-347,1 0-43,0 1-49,-1 0-54,1 0-58,1 2-65,-1 0-68,2 3-76,0-2-697,1 1-36,-5 4 206,3-4-234,0 2-33,-4 3 108,-10 18 388,15-19-473,1 3 39,1-3-179,-4 10 108,0 2-35,2 0-37,2 0-37,1 4-79,2-21-47,1 1-1,-1 0 1,1-1 0,-1 0 0,1 1 0,2 3 7,-3-5-4,1-1-1,0 0 1,0-1 0,0 1 0,0 0-1,1 0 1,-1-1 0,0 2 0,1-2-1,-1 1 1,1-1 0,-1 1 0,1-1-1,0 0 5,0 0 1,0 0 1,0 2-1,1-3 0,-1 1 0,0 0 1,1 0-1,-1-1 0,3 1-1,-1 0 86,0-1-45,0 0-41,0 0-41,0 0-40,0 0-37,0-1-37,0 1-35,3-2-288,1 0-122,-1-2-109,0 1-99,-2 0 99,0 0-49,1-1-43,-1 0-36,1 0-209,1-2-34,12-10-2259,-14 13 2589,25-23-3623</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1052.076">773 13 7808,'-2'-1'502,"0"-1"118,0 1-17,-1-2 60,-1 0 416,0 1 69,3 2-1065,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0 0-1,0 1 1,0-1-1,-1 0-83,0 2 751,1 3-35,0 0-381,0 0-37,0 4 110,0 0-75,0-1-64,0 1-53,0 7 91,3 25 222,-2-28-302,1 1 83,0 3-92,0 3 44,4 40 666,-3-21-367,-1-14-228,0-4-99,1 0-50,2 25 196,1 3 111,-1 12 204,2 29 459,-6-62-883,0 0-32,1 9 1,-1-19-161,0-1-34,1 20-8,-1-21-45,0-1-62,0-4-27,0-1-53,0-7-125,-1 0 47,1 9-388,-1-7 312,0-2 83,0-1-41,0 1-74,0-1-71,0 2-81,0-1-93,0-2 173,0 1-43,0-1-44,0 1-49,0-1-49,0 2-54,0-2-56,-1 1-58,2-1-310,-1 0-2008,2-1 1790,-1 0 256,1 0 33,5 0-1879</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3293,12 +3478,12 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">247 0 6016,'0'15'774,"0"0"-45,0 0-45,0-1-43,0 1-42,0 0-41,0 0-39,0 0-38,0 0-37,0-1-35,0 1-34,0 0-33,0 15 248,0 0-115,0-10-206,0 1-47,0 0-45,0 0-41,0-1-37,0 1-34,0 21-21,0-10-75,0 1-42,0 73-295,0-61 235,0 9 70,0-26 92,0 1 56,0 0 67,0-1 76,-1 5-68,-3 13-160,0-4 71,3-15-72,1 320-83,0-197 146,-1-107-34,-3 2-28,-1 42 58,5 216-57,0 1 42,0 2 55,0 0 69,0-250-131,0 91-138,0-95 147,-1-12 60,-2 13-11,-1-9 37,3 5-131,1-21 47,0 2-37,0 111-93,0-97 152,-1-26 14,0 0 1,-3 11-84,1-3 30,2 7-46,1 18-43,1 17 48,-4-1 65,2-59-39,-4 48 37,3-2-65,1-23 2,0 1 0,-2-1 1,-2 2 10,1-8 0,1-1 0,1 1 0,1 23 0,-4-8-1,3-28 5,1 0-1,0 0 1,0 0-4,0 36 39,-5 20-67,2-29 12,0-9 11,2-6 15,-1 26-10,3 31-27,0 0 50,0 190 182,0-153-162,0-48-60,0 0-44,-4-3 38,0-28-10,3 0-66,1-32 78,0 2-77,0 0-96,0 1-112,0-6 104,0 1-34,0-1-37,0 0-40,0-1-42,0 1-43,0-1-47,0-1-47,0-2-73,0-1-36,0-2-44,0-1-51,0-6-527,0-7-759</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33461.357">0 434 9728,'0'-1'482,"0"0"-44,0 1-43,1-1-39,-1 0-38,0 1-34,0-1 192,1 1-243,-1-1-34,1 1 117,0 1-39,2 0 59,-1 0-82,0 0 96,0 0-35,-1-1 84,1 1 11,0-1 80,0 0 91,0 0 99,1 1-299,0-1-45,0 0-43,0 1-37,3 0 155,0 1-110,0 0-70,13 0 228,-11-2-210,16-4 96,-1 2-62,0 0-54,1 0-48,4 1-13,0 1-43,57 1 133,-45 0-118,1-1 67,-28 0-215,24 0 95,-21 0-87,-2 0-63,1 0-89,-7 0 20,0 0-40,0 0-44,0 0-49,0 0-54,0 0-59,-1 0-62,1 0-67,12 0-742,10 0-787</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">247 0 6016,'0'16'774,"0"0"-45,0 0-45,0-1-43,0 0-42,0 1-41,0 0-39,0 0-38,0 0-37,0-1-35,0 1-34,0 0-33,0 15 248,0 1-115,0-11-206,0 2-47,0-1-45,0 0-41,0-1-37,0 2-34,0 21-21,0-10-75,0 1-42,0 77-295,0-64 235,0 9 70,0-27 92,0 1 56,0 0 67,0-2 76,-1 6-68,-3 14-160,0-4 71,3-17-72,1 340-83,0-209 146,-1-113-34,-3 1-28,-1 45 58,5 230-57,0 0 42,0 2 55,0 1 69,0-266-131,0 97-138,0-101 147,-1-13 60,-2 14-11,-1-9 37,3 5-131,1-22 47,0 1-37,0 119-93,0-103 152,-1-28 14,0 0 1,-3 11-84,1-2 30,2 7-46,1 19-43,1 18 48,-4-1 65,2-62-39,-4 50 37,3-2-65,1-24 2,0 1 0,-2-1 1,-2 2 10,1-9 0,1 0 0,1 0 0,1 25 0,-4-8-1,3-31 5,1 1-1,0 0 1,0-1-4,0 39 39,-5 21-67,2-30 12,0-10 11,2-7 15,-1 28-10,3 33-27,0 0 50,0 201 182,0-162-162,0-51-60,0 0-44,-4-3 38,0-29-10,3-1-66,1-33 78,0 1-77,0 1-96,0 0-112,0-6 104,0 2-34,0-2-37,0 0-40,0-1-42,0 2-43,0-2-47,0-1-47,0-2-73,0-1-36,0-2-44,0-2-51,0-5-527,0-8-759</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33461.357">0 460 9728,'0'-1'482,"0"0"-44,0 1-43,1-1-39,-1 0-38,0 1-34,0-1 192,1 1-243,-1-1-34,1 1 117,0 1-39,2 0 59,-1 0-82,0 0 96,0 0-35,-1-1 84,1 1 11,0-1 80,0 0 91,0 0 99,1 1-299,0-1-45,0 0-43,0 1-37,3 0 155,0 1-110,0 0-70,13 1 228,-11-3-210,16-5 96,-1 3-62,0 0-54,1 0-48,4 1-13,0 1-43,56 1 133,-44 0-118,1-1 67,-28 0-215,24 0 95,-21 0-87,-2 0-63,1 0-89,-7 0 20,0 0-40,0 0-44,0 0-49,0 0-54,0 0-59,-1 0-62,1 0-67,12 0-742,10 0-787</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3322,12 +3507,12 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">253 0 6912,'0'0'928,"0"0"-356,0 0-148,0 0-66,0 0-75,0 0-64,0 0-11,0 0 58,0 0 59,0 2 214,0 16 183,0 0-75,0 0-71,0 0-65,0 0-61,0 0-58,0 0-52,0 0-49,0-2-59,0 1-34,0 16 107,0-4-124,0-1-51,0 65 146,0-52-123,0 2 94,0-22-75,0 1 42,-5 114 69,0 8-70,4-80-117,-3 1 73,1-6 57,1-4 67,1-3 21,-3-8-66,1-3 140,1 8-388,2-7 144,-1 4-57,-2 10-39,-1 19-45,1 67 56,-4 2 51,6-75-119,-9 128-34,3-96 4,4-2-33,2-46 98,-3 1-26,0 5 18,3-11-36,-9 165-28,0 3-52,5-100 198,2-65-70,1-4-53,1-8-67,-4 19 90,0 5-27,4-41 24,-6 137 0,2-35 30,1-63-53,3-31-27,1 0-39,0 144-555,0-56 298,0-69 248,0 0 38,0-1 42,0-1 50,0 172-339,0-126 147,0-27 2,0-1-53,-1-32-40,-3 11 254,-1 29-124,6-24 72,-1 1-253,-3 28 305,-4-18-165,0 1 48,3-9 84,4-41 32,0-1-1,-1 1 1,-1-1 0,-1 5 1,-2 14-16,0 10-162,2 10 178,3-14-20,0 68 87,0 43-38,-2-122 23,-2 10 78,0 18 72,4-15-50,2 0-49,0 0-42,2-2-36,-3-3 4,1 5 33,1-20-30,-1-6 0,1 0 0,0 0 0,0 0 0,1 1-32,3 13-4,-2-3-52,5 0-65,-5-13 41,0-2 40,-2-1-39,0 2-59,0 1-96,-1-5 147,0 0-80,1 0-101,-1-2 90,0 0-34,0 0-37,0 0-38,0-1-42,0 1-44,0-1-48,0-1-49,0 1-54,0-1-55,-1-1-194,0 0-43,0-2-533,2 2 55,2 1-708</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30785.524">6 277 9472,'-3'0'1034,"1"0"-83,2 0-79,0 0-77,1 0-75,1 0-72,1 0-69,0 0-66,1 0-64,-1 0-61,1 0-59,0 0-56,-1 0-53,0 0-51,0 0-47,-1 0-46,15 0 557,0 0-84,0-1-79,0 1-72,-1-1-67,1 1-61,0-1-54,-1 1-49,14-2 31,-1 0-103,0 1-68,39-4-33,-47 4 34,0-1 34,-5 1 20,1 0 35,5 0-49,0 0-97,1 1-116,-12 0 22,1 0-38,0 1-61,0-1-51,1 0-56,-1 0-58,0-1-63,0 1-65,0-1-69,-1 0-74,0 0-161,-1 0-111,2-1-294,6-2-730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">253 0 6912,'0'0'928,"0"0"-356,0 0-148,0 0-66,0 0-75,0 0-64,0 0-11,0 0 58,0 0 59,0 2 214,0 17 183,0 0-75,0 0-71,0 0-65,0 0-61,0 0-58,0 1-52,0-1-49,0-2-59,0 1-34,0 16 107,0-3-124,0-1-51,0 68 146,0-54-123,0 1 94,0-23-75,0 2 42,-5 120 69,0 8-70,4-84-117,-3 1 73,1-7 57,1-3 67,1-4 21,-3-9-66,1-2 140,1 8-388,2-8 144,-1 5-57,-2 10-39,-1 20-45,1 72 56,-4 1 51,6-79-119,-9 136-34,3-102 4,4-2-33,2-49 98,-3 1-26,0 5 18,3-11-36,-9 175-28,0 3-52,5-107 198,2-68-70,1-4-53,1-9-67,-4 21 90,0 5-27,4-44 24,-6 145 0,2-36 30,1-68-53,3-32-27,1 0-39,0 152-555,0-59 298,0-73 248,0 0 38,0-2 42,0 0 50,0 182-339,0-133 147,0-30 2,0 0-53,-1-34-40,-3 12 254,-1 30-124,6-25 72,-1 1-253,-3 30 305,-4-20-165,0 2 48,3-10 84,4-44 32,0 0-1,-1 1 1,-1-2 0,-1 6 1,-2 15-16,0 10-162,2 11 178,3-15-20,0 72 87,0 46-38,-2-130 23,-2 11 78,0 19 72,4-16-50,2 1-49,0-1-42,2-2-36,-3-3 4,1 5 33,1-21-30,-1-7 0,1 1 0,0 0 0,0-1 0,1 2-32,3 14-4,-2-4-52,5 0-65,-5-13 41,0-3 40,-2-1-39,0 3-59,0 0-96,-1-4 147,0-1-80,1 0-101,-1-2 90,0 0-34,0 1-37,0-1-38,0-1-42,0 1-44,0-1-48,0-1-49,0 1-54,0-1-55,-1-1-194,0 0-43,0-2-533,2 2 55,2 1-708</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30785.524">6 293 9472,'-3'0'1034,"1"0"-83,2 0-79,0 0-77,1 0-75,1 0-72,1 0-69,0 0-66,1 0-64,-1 0-61,1 0-59,0 0-56,-1 0-53,0 0-51,0 0-47,-1 0-46,15 0 557,0 0-84,0-1-79,0 1-72,-1-1-67,1 1-61,0-1-54,-1 1-49,14-2 31,-1 0-103,0 1-68,39-4-33,-47 3 34,0 0 34,-5 1 20,1 0 35,5 0-49,0 0-97,1 1-116,-12 0 22,1 0-38,0 1-61,0-1-51,1 0-56,-1 0-58,0-1-63,0 1-65,0-1-69,-1 0-74,0 0-161,-1 0-111,2-1-294,6-2-730</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3351,11 +3536,11 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">99 1 4992,'0'15'963,"0"0"-122,0 0-115,0 1-106,0-1-96,0 1-90,0 0-79,0-1-73,0 0-81,0-1-46,0 14 47,0-1-107,0 34 1,0-44-34,0 0 46,2 33 141,1 4-249,1-5 156,-3 4-156,-1 48 68,0 56 104,0-25 47,0 0 37,0-68-147,0 7-34,0-1-36,0-7-33,0 190 111,0 205-36,0-360-17,0-2 42,-1-38-91,-3 2 37,-1 54 137,3-34-65,-2-11-61,-1-3-53,1-7-23,-1 33 57,-4-2 64,-3 29 85,8-67-205,2-10-89,0 26-50,2-26 112,-2 3 69,-4 90 187,4-46-119,2 153-114,0-5 45,0 322 134,1-505-88,-1 19-5,-3-4-50,1-35-8,-4 60-13,1 3-92,0-3 74,2 18 28,-2-41 40,2 49 5,-4-3 83,6-61-111,1 0-40,0 28 4,0 115-103,0-130 113,5 26 35,0-11-102,-7-12-128,1-15 41,1-20 19,1-5-12,2 1-43,8 61-518,-6-62 413,-1 0-85,0-5-25,0-1-101,0 1-120,-2-14 262,0 0-37,0 6-146,-2-11 288,0-3 34,0 1-49,0 0-40,0 0-67,0-2 42,0 0-43,0 0-117,0 4-297</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">100 1 4992,'0'16'963,"0"0"-122,0 0-115,0 1-106,0-2-96,0 2-90,0 0-79,0-1-73,0 0-81,0-1-46,0 14 47,0 0-107,0 35 1,0-46-34,0 0 46,2 35 141,1 4-249,1-5 156,-3 4-156,-1 51 68,0 59 104,0-26 47,0-1 37,0-71-147,0 7-34,0-1-36,0-7-33,0 201 111,0 216-36,0-380-17,0-3 42,-1-39-91,-3 1 37,-1 58 137,3-37-65,-2-11-61,-1-3-53,1-8-23,-1 36 57,-4-3 64,-3 31 85,7-71-205,3-11-89,0 28-50,2-27 112,-2 2 69,-4 96 187,4-49-119,2 162-114,0-5 45,0 340 134,1-534-88,-1 20-5,-3-4-50,1-37-8,-4 64-13,1 2-92,0-2 74,2 18 28,-2-43 40,2 52 5,-4-3 83,6-65-111,1 1-40,0 28 4,0 123-103,0-138 113,5 27 35,0-11-102,-7-13-128,1-15 41,1-22 19,1-5-12,2 1-43,8 64-518,-6-65 413,-1 0-85,0-6-25,0 0-101,0 0-120,-2-14 262,0 0-37,0 6-146,-2-12 288,0-2 34,0 0-49,0 0-40,0 1-67,0-3 42,0 0-43,0 0-117,0 5-297</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3379,13 +3564,13 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">129 754 7680,'0'0'1019,"0"0"-391,0 0-162,0 0-73,0 0-82,0 0-69,0 0-11,0 0 68,0 0 69,0 0 245,0 0-3,0 0-233,0 0 43,0 0-40,0 0 313,0-1-101,0-5-316,0 1-51,0 0-44,1 0-37,0-2 3,0 0-44,2-15 119,-1 13-75,0-4 46,-1 2-49,-1 0-16,0-4 17,-1-6 67,1-7 86,0 3-40,8-92 764,-6 89-911,0 0 45,3-65 493,-4 53-398,0-1-72,-1 21-132,0 0-37,0-10-67,0 1-100,0 1-116,0 13 89,0 1-36,0 1-14,0 10-168,0 3-83,0-1 93,0 1-68,1 0-396,0 0 91,-1 0 83,0 0 80,1 0 74,-1 0 67,1 0 63,-1 0 57,0 0 20,1 0 56,-1 0 49,0 0 41,1 0-79,0 0-171,-1 0 255,1 0-55,-1 0-147,0 0 134,1 0-41,0 0-1375,-1 0-745</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="749.704">1 557 9472,'1'2'681,"1"-1"-35,0 1-34,0-1-35,-1 1-35,1-1-34,0 1-35,-1-1-35,1 0-34,0 0-36,0 0-34,0 1-36,0-1-34,0 0-36,0 0-34,0 0-36,8 7 893,-5-4-629,0 1-37,-3-2-240,0-1-41,0 1-36,0-2-105,5 6 261,-1 0-39,6 6 92,-2 0-105,16 21 154,-16-19-128,7 6 202,-5-12-91,-6-8-123,-3-4-44,-1-7 63,-1 5-103,3-5 54,0 1-73,-2 7-67,-1-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0-3-16,1-24 63,0-1-46,8-16 32,-1 6 35,-7 35-135,4-10 133,-4 11-96,1 0-63,-1-1-90,-1 1-116,0 2 18,0-1-72,-1 1-77,1 0-87,-1 2-102,0 1 39,0 0 36,0 0 37,0 0 34,0 0 32,0-1-330,1 1 114,-1 0 104,1 0 92,0 0 80,-1 0 18,1 0 80,0 0-56,2 0-83,-3 0 195,1 0-77,-1 0-105,0 0 98,0 0-57,2 0-601,0 0 32,4 0-1727</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1164.848">20 211 10880,'0'0'1427,"0"0"-548,0 0-227,0 0-101,0 0-116,0 0-98,0 0-21,0 0 79,0 0 66,0 0 293,1 0-11,0 0-323,4 0-95,1-1-50,-1 0-47,-1 0-42,1-1-38,0 0-34,3-4 30,2-1-80,10-12-55,-12 10 71,0 0 5,1-1-1,-1-1 1,-1 0 0,0 0-1,2-5-84,6-9 213,2 0 69,-13 20-224,1 0 37,3-4 100,0 1 42,7-6 269,-9 11-221,1 14 304,-1 6-245,4 12-149,-2 6-65,-2 0-92,-3-19-61,-2-1-34,5 22-508,-4-27 337,0 1-40,1-3 6,-1 0-42,0 0-50,1 0-55,0 1-242,-1-4 245,-1 0-36,1-1-50,-1 0-60,1-1 143,-1-1-35,0 0-41,1 1-44,-1-1 52,1 0-34,0 0-38,0 0-39,0-1-41,0 2-44,1-1-46,-1 0-47,6 4-1227,4 6-838,-12-12 2818</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">129 785 7680,'0'0'1019,"0"0"-391,0 0-162,0 0-73,0 0-82,0 0-69,0 0-11,0 0 68,0 0 69,0 0 245,0 0-3,0 0-233,0 0 43,0 0-40,0 0 313,0-1-101,0-5-316,0 0-51,0 1-44,1 0-37,0-2 3,0-1-44,2-14 119,-1 12-75,0-3 46,-1 1-49,-1 1-16,0-5 17,-1-6 67,1-7 86,0 3-40,8-96 764,-6 93-911,0 0 45,3-68 493,-4 56-398,0-2-72,-1 22-132,0 0-37,0-10-67,0 1-100,0 1-116,0 13 89,0 1-36,0 2-14,0 10-168,0 3-83,0-1 93,0 1-68,1 0-396,0 0 91,-1 0 83,0 0 80,1 0 74,-1 0 67,1 0 63,-1 0 57,0 0 20,1 0 56,-1 0 49,0 0 41,1 0-79,0 0-171,-1 0 255,1 0-55,-1 0-147,0 0 134,1 0-41,0 0-1375,-1 0-745</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="749.704">1 580 9472,'1'2'681,"1"-1"-35,0 1-34,0-1-35,-1 1-35,1-1-34,0 1-35,-1-1-35,1 0-34,0 0-36,0 0-34,0 2-36,0-2-34,0 0-36,0 0-34,0 0-36,8 7 893,-5-4-629,0 1-37,-3-1-240,0-2-41,0 1-36,0-2-105,5 6 261,-1 0-39,6 7 92,-2-1-105,16 23 154,-16-21-128,7 7 202,-5-12-91,-6-9-123,-3-4-44,-1-8 63,0 6-103,2-5 54,0 0-73,-2 8-67,-1-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0-4-16,1-24 63,0-1-46,8-17 32,-1 6 35,-7 37-135,4-11 133,-4 12-96,1 0-63,-1-1-90,-1 0-116,0 3 18,0-1-72,-1 1-77,1 0-87,-1 2-102,0 1 39,0 0 36,0 0 37,0 0 34,0 0 32,0-1-330,1 1 114,-1 0 104,1 0 92,0 0 80,-1 0 18,1 0 80,0 0-56,2 0-83,-3 0 195,1 0-77,-1 0-105,0 0 98,0 0-57,2 0-601,0 0 32,4 0-1727</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1164.848">20 220 10880,'0'0'1427,"0"0"-548,0 0-227,0 0-101,0 0-116,0 0-98,0 0-21,0 0 79,0 0 66,0 0 293,1 0-11,0 0-323,4 0-95,1-1-50,-1 0-47,-1 0-42,1-2-38,0 1-34,3-4 30,2-1-80,10-13-55,-12 11 71,0-1 5,1 0-1,-1-2 1,-1 1 0,0 0-1,2-6-84,6-9 213,3 0 69,-14 21-224,1-1 37,3-3 100,0 1 42,7-7 269,-9 12-221,1 14 304,-1 7-245,4 12-149,-2 7-65,-2-1-92,-3-19-61,-2-2-34,5 24-508,-4-29 337,0 2-40,1-4 6,-1 1-42,0-1-50,1 0-55,0 2-242,-1-5 245,-1 0-36,1-1-50,-1 0-60,1-1 143,-1 0-35,0-1-41,1 1-44,-1-1 52,1 0-34,0 0-38,0 0-39,0-1-41,0 2-44,1-1-46,-1 0-47,6 5-1227,4 5-838,-12-12 2818</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3409,11 +3594,11 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 118 7936,'-2'0'633,"0"0"-41,1-1-40,-1 0-40,1 0-36,0 0-36,0-1 339,0-1-126,1-1-113,0 0-100,0 0-90,1 1-127,0 0-43,1-4 75,1 2-113,2-5 72,6-3-106,2 0-53,-7 7-49,1 1-1,0 0 1,1 0 0,-1 0 0,8-3-6,8 0 53,-21 8-51,-1 0 0,0 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 1 0,-1-1 0,0 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 1 0,0-1 0,0 1-1,1 0 1,-1-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0-2,2 2 4,0 1-1,0-1 1,-1 1-1,1 0 1,0 2-4,-1-3 4,-1-1-3,8 13 5,0 0 0,2 7-6,0 7 62,-1-8 14,0 2 73,-5-11-12,-2-1 61,-2-10-179,1 10 245,0-4 4,1-2 52,-1 1 115,1 3 601,-3 1-65,-4-3-81,-3-4-96,0-3-394,0 0-36,-7 0 263,0 0-119,1 0-103,-4 0-32,0 0-95,-2 0-32,-11 0 52,25 0-307,0 0 37,-10-3 165,9 1-136,0 0-68,2 2-40,1-1-37,-1 0-44,1 1-50,0 0-55,-1-1-62,2 2-382,1-1 83,0 1 72,-1 0 59,1 0 55,1 0 33,-3 4-758,3-3 625,-1 0-73,1 0-94,0 0 216,0-1-52,0-1-60,0 1-66,0 1-303,0 0-49,0 1-246,0 0-673</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 131 7936,'-2'0'633,"0"0"-41,1-1-40,-1 0-40,1 0-36,0 0-36,0-1 339,0-2-126,1 0-113,0-1-100,0 1-90,1 1-127,0-1-43,1-4 75,1 3-113,2-6 72,6-4-106,2 1-53,-7 7-49,1 2-1,0-1 1,1 0 0,-1 1 0,8-4-6,8 0 53,-21 9-51,-1 0 0,0 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 1 0,-1-1 0,0 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 1 0,0-1 0,0 1-1,1 1 1,-1-2 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0-2,2 2 4,0 2-1,0-2 1,-1 2-1,1-1 1,0 3-4,-1-4 4,-1-1-3,8 15 5,0 0 0,2 7-6,0 8 62,-1-8 14,0 1 73,-5-11-12,-2-2 61,-2-11-179,1 11 245,0-4 4,1-2 52,-1 0 115,1 4 601,-3 2-65,-4-5-81,-3-3-96,0-4-394,0 0-36,-7 0 263,0 0-119,1 0-103,-4 0-32,0 0-95,-2 0-32,-11 0 52,25 0-307,0 0 37,-10-4 165,9 2-136,0 0-68,2 2-40,1-1-37,-1 0-44,1 1-50,0 0-55,-1-1-62,2 2-382,1-1 83,0 1 72,-1 0 59,1 0 55,1 0 33,-3 5-758,3-4 625,-1 0-73,1 0-94,0 1 216,0-2-52,0-1-60,0 1-66,0 1-303,0 0-49,0 2-246,0-1-673</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3437,12 +3622,12 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 79 6912,'0'0'928,"0"0"-356,0 0-148,0 0-66,0 0-75,0 0-61,0 0 287,0 0-122,0 0 303,0 0 537,0 2-91,-1 2-530,1 0-96,-2 0-83,1 0-69,-1 0-68,0 0-38,0 11 392,3 12-110,0 0-60,3 15 148,1-3-70,-1-22-226,1 1-92,2 1-70,2-1-48,-7-14-88,1 0 1,0 0-1,-1 0 0,2 0 0,-1-1 1,0 1-1,1-1 0,-1 0 0,4 2-28,12 4 164,-17-9-149,1 1-1,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 1,2-1-15,-1-1 12,0 1 0,1-1 1,-1 0-1,0 0 0,0-1 1,0 1-13,23-20-27,-16 10-35,-1 1-38,2-3-167,-5 3 40,-1 2-19,1-1-71,-1 0-103,1 0-115,-4 5 218,1 1-37,-1-1-38,1 0-41,-1 0-44,1 1-47,-1 0-48,1 0-52,0 0-53,0 0-57,0 0-58,0 1-62,4-2-748,4-1-876</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="292.219">159 0 7168,'-1'0'767,"0"0"-44,0 0-41,0 1-42,0-1-38,1 0-39,-1 1-36,0-1-36,0 1 390,0 0-124,1 1-116,-1-1-104,1 1-174,-1-1-55,1 1-49,0-1-43,0 1-7,0 0-44,0 1-13,0 1 16,0 2 74,0-2-3,0 0 62,0-2-102,-1-1 38,-1 12 178,0 0-38,0 1-36,0-1-32,-1 15 220,1 0-102,0-3-111,1 1-50,-1 86 759,0-56-501,-1-20-274,1-16-162,1 0-48,0-2-55,0-1-61,1 14-280,0-16 146,0 0-54,0-5 41,0-1-49,1-1 1,-1 0-46,0-1-53,1 1-57,0-3 37,-1 0-44,1 1-39,0-1-35,0 1-139,0 0-34,2 12-1481</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 83 6912,'0'0'928,"0"0"-356,0 0-148,0 0-66,0 0-75,0 0-61,0 0 287,0 0-122,0 0 303,0 0 537,0 2-91,-1 2-530,1 0-96,-2 0-83,1 1-69,-1-1-68,0 0-38,0 12 392,3 12-110,0 0-60,3 16 148,1-3-70,-1-23-226,1 1-92,2 0-70,2 0-48,-7-15-88,1 1 1,0-1-1,-1 0 0,2 0 0,-1-1 1,0 2-1,1-2 0,-1 0 0,4 2-28,12 4 164,-17-9-149,1 1-1,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 1,2-1-15,-1-1 12,0 1 0,1-1 1,-1 0-1,0 0 0,0-1 1,0 1-13,23-21-27,-16 10-35,-1 2-38,2-4-167,-5 3 40,-1 3-19,1-1-71,-1-1-103,1 1-115,-4 4 218,1 2-37,-1-1-38,1 0-41,-1 0-44,1 0-47,-1 1-48,1 0-52,0 0-53,0 0-57,0-1-58,0 2-62,4-2-748,4-1-876</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="292.219">159 0 7168,'-1'0'767,"0"0"-44,0 0-41,0 1-42,0-1-38,1 0-39,-1 1-36,0-1-36,0 1 390,0 0-124,1 1-116,-1-1-104,1 1-174,-1-1-55,1 2-49,0-2-43,0 1-7,0 0-44,0 1-13,0 1 16,0 2 74,0-1-3,0-1 62,0-2-102,-1-1 38,-1 13 178,0-1-38,0 2-36,0-2-32,-1 17 220,1-1-102,0-3-111,1 1-50,-1 91 759,0-60-501,-1-20-274,1-17-162,1 0-48,0-2-55,0-2-61,1 16-280,0-17 146,0-1-54,0-4 41,0-2-49,1 0 1,-1-1-46,0-1-53,1 2-57,0-4 37,-1 0-44,1 1-39,0 0-35,0 0-139,0 0-34,2 13-1481</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3466,38 +3651,10 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">227 30 8320,'0'0'350,"0"-6"482,1 1-199,-1 0-21,-1 1 102,1 0-22,0 1 102,-1 1 117,1 2-407,0 0 35,-12 0 344,2 1-75,-1 1-72,0 0-69,1 1-65,0 0-61,0 1-59,1 1-55,0 0-51,0 1-48,0-1-44,0 2-42,1 0-38,0 0-34,-6 8 81,2-1-116,1 1-52,3-3-41,1 1 0,0 0 0,-3 9-42,4-6 53,-2 8 101,5-12-32,0 0 38,2-10-157,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 1 0,1 0-3,2 3 13,0-1 0,0 0 0,0-1 0,0 1 0,1-1 1,0 0-14,5 5 25,-8-6-16,0-1-1,1 1 1,-1 0-1,1 0 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 0 1,3 1-9,10 0-92,-8 0-27,-1 0-43,-1 1-80,-3-1 42,1-1-44,0 1-47,0 0-53,1 0-58,0-1-63,0 0-66,1 1-73,-1-1 0,1 0-74,-1 1-79,1 0-83,0 0-88,-1 0-90,1 1-97,0-1-100,-4 0 744,18 0-3833</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="308.173">287 277 9472,'-3'-2'768,"1"0"-46,1 1-52,-1 0-56,1 1-64,0 1-68,1 0-76,0 2-80,0-2 246,0-1-76,0 0 36,0 0 551,0 0-422,0 0-318,0 0-36,0 1 206,0 0-121,0 1-103,0-1-139,0 1-36,0 1 29,0 6 44,0-7-94,0-1 53,0 6 25,1 11 113,-4-4-184,-4 16 0,7-26-96,-1-1 0,1 1 0,0-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0-4,1 10-4,-2-12-20,4-5-17,-2 2 25,17-8-30,7-3 49,-25 11-8,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 1 0,1-1 1,0 1-1,-1 0 1,1-1-1,-1 1 1,1 0-1,0 0 6,10 3-16,1 3 88,-12-5-55,5 3-86,-1 0-11,-1 0-38,0 0-69,-1-1-35,0 1-73,-1-1-86,-1-1-97,1 1-90,0 0-117,0-1-257,0-1 173,-1-1-35,3-1-839,-2-1 579,1 0 230,-1 0 74,-1 1-709,0 0-816</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="502.663">296 297 10368,'-2'0'576,"1"0"-70,-1 0-64,2-1-53,-1 1 20,0-1-48,1-1 584,0 0-268,-1 1-131,1-1-3,-1 1 105,1 1-67,1 1-111,1-1-100,-1 0-86,1 0-43,1 0-86,0 0-54,1-1-49,-1 1-9,-1 0 44,6 0-115,-1 0 91,1 0 81,11 0 284,-12 0-316,-2 0-63,0 0-44,0 0-53,0 0-65,0 0-98,1 0-106,0 0-119,-4 0 170,1 0-36,0 0-36,0 0-38,0 0-41,0 0-41,0 0-44,0 0-45,0 0-47,0 0-48,2 0-884,2 0-900</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="727.058">316 248 9472,'-1'1'232,"0"0"54,0-1 45,0 1 39,-1 1 438,-3 1 1222,4-3-1451,-1 1-56,0-1-2,1 0-312,0 0-40,0 0 900,0 0-405,2 0-232,-1 0-51,0 0-48,1 0-42,0 0-42,0 0-35,1 0 116,1 0-124,-1 0-65,1 0-36,2 0 81,-4 0-88,7 0-85,11-3 172,-12 2-144,-2 0-54,-1 0-32,0 0-40,0 0-48,1 1-53,0-1-62,0 1-68,0 0-76,3 0-159,-4 0 230,0 0-40,1 0-198,0 0-108,0 0-118,-1 0-102,1 0-275,3 0-691</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2018-06-21T14:38:06.025"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">178 6654 5504,'-3'-7'809,"1"0"-108,0-1-106,1 0-107,0 1-107,0 1-105,1 1-107,0 1-106,0-10 703,0 1-89,0 0-81,0 0-75,0 0-69,0 1-63,0-1-57,0 1-49,0-9 118,0-1-106,0 2-73,0-27 225,0 32-279,0 1 37,0 1 9,0 1 45,0-1 51,0 0 60,-1-30 318,-3 2-110,1 8-170,1-20 142,3 1-58,-1 13-199,0 0-46,-1 1-51,0 4-59,-3-7 48,1-4 9,1 1-45,1 1-45,-2-13-10,-1-3-7,3 15 1,1-39 62,0-43 143,0 54-98,1 22-97,-4-31 4,-8-45 8,0-22-66,5-2-44,1 50 4,0 4 51,-2-101 11,3 133-73,-1-2-41,3 44 21,-1-108-80,-2 52 60,4-149 62,7 127-47,-4 47-5,-2-2 37,1-11-59,10-59-150,-6 66 162,-1-4 36,-5-26 11,2-6-79,-1 89 74,8-269-289,-3 131 150,5-1 48,0-2 71,-5 2 98,-4 18-124,0 8 58,-3 5 69,-8-51-76,3 84-91,4-19 91,1 40-16,-4-25 125,2 41-31,2 13-48,-1-19-26,0-16-43,-1-32-10,0 35 34,2 19 11,-6-110 2,5 97 2,4-17 0,-1 13 11,0 1 24,-2-7-41,-7-122-98,5 137 65,0-21 14,2 29 2,-1 22-28,-2-1-40,2 12 54,1-1-90,1 0-103,-1 0-117,1 4 44,0 1-61,0 1-65,0 0-70,0 1-133,-2 1-71,0 1-89,-1 0-110,-1 1 93,0 0-67,-1 0-240,-5-2-629,11 4 1742</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">228 32 8320,'0'0'350,"0"-6"482,1 0-199,-1 1-21,-1 1 102,1-1-22,0 2 102,-1 1 117,1 2-407,0 0 35,-13 0 344,3 1-75,-1 1-72,0 0-69,1 2-65,0-1-61,0 1-59,1 1-55,0 1-51,0 0-48,0-1-44,0 3-42,1-1-38,0 1-34,-6 8 81,2-1-116,1 1-52,3-3-41,1 1 0,0-1 0,-3 11-42,4-7 53,-2 9 101,5-14-32,0 1 38,2-11-157,1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 1-1,0-2 1,0 1 0,1 0-3,2 3 13,0-1 0,0 1 0,0-2 0,0 1 0,1-1 1,0 1-14,5 4 25,-8-6-16,0-1-1,1 1 1,-1 1-1,1-1 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 0 1,3 1-9,10 0-92,-8 0-27,-1 1-43,-1 0-80,-3-1 42,1-1-44,0 1-47,0 0-53,1 0-58,0-1-63,0 0-66,1 1-73,-1-1 0,1 0-74,-1 1-79,1 0-83,0 0-88,-1 0-90,1 1-97,0 0-100,-4-1 744,19 0-3833</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="308.173">288 296 9472,'-3'-2'768,"1"-1"-46,1 2-52,-1 0-56,1 1-64,0 1-68,1 0-76,0 3-80,0-3 246,0-1-76,0 0 36,0 0 551,0 0-422,0 0-318,0 0-36,0 1 206,0 0-121,0 1-103,0-1-139,0 1-36,0 1 29,0 7 44,0-8-94,0-1 53,0 7 25,1 11 113,-4-4-184,-4 17 0,7-28-96,-1-1 0,1 2 0,0-2 1,0 1-1,1 0 0,-1-1 0,1 2 0,0-2 0,0 1 0,0-1 0,0 2 0,1-1-4,1 11-4,-2-13-20,4-5-17,-2 2 25,17-9-30,7-3 49,-25 12-8,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 1 0,1-1 1,0 1-1,-1 0 1,1-1-1,-1 1 1,1 0-1,0 0 6,10 3-16,1 3 88,-12-5-55,5 4-86,-1-1-11,-1 0-38,0 1-69,-1-2-35,0 1-73,-1-1-86,-1-1-97,1 2-90,0-1-117,0-1-257,0-1 173,-1-1-35,3-1-839,-2-1 579,1 0 230,-1-1 74,-1 2-709,0 0-816</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="502.663">297 317 10368,'-2'0'576,"1"0"-70,-1 0-64,2-1-53,-1 1 20,0-1-48,1-1 584,0 0-268,-1 1-131,1-2-3,-1 2 105,1 1-67,1 1-111,1-1-100,-1 0-86,1 0-43,1 0-86,0 0-54,1-1-49,-1 1-9,-1 0 44,6 0-115,-1 0 91,1 0 81,11 0 284,-12 0-316,-2 0-63,0 0-44,0 0-53,0 0-65,0 0-98,1 0-106,0 0-119,-4 0 170,1 0-36,0 0-36,0 0-38,0 0-41,0 0-41,0 0-44,0 0-45,0 0-47,0 0-48,2 0-884,2 0-900</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="727.058">317 265 9472,'-1'1'232,"0"0"54,0-1 45,0 1 39,-1 1 438,-3 1 1222,4-3-1451,-1 1-56,0-1-2,1 0-312,0 0-40,0 0 900,0 0-405,2 0-232,-1 0-51,0 0-48,1 0-42,0 0-42,0 0-35,1 0 116,1 0-124,-1 0-65,1 0-36,2 0 81,-4 0-88,7 0-85,11-3 172,-12 2-144,-2 0-54,-1 0-32,0 0-40,0 0-48,1 1-53,0-1-62,0 1-68,0 0-76,3 0-159,-4 0 230,0 0-40,1 0-198,0 0-108,0 0-118,-1 0-102,1 0-275,3 0-691</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3525,8 +3682,36 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">148 1 5120,'0'0'713,"0"0"-273,0 0-114,0 0-51,0 0 35,0 0 207,0 0-296,0 0 38,0 0 349,0 0 731,0 0-881,0 2 140,1 1-275,-1 8 378,-3-3-77,0-6-354,-3 3 126,3 6-138,-2 3-22,-2-2-47,-1 2-16,1 1-52,1 3-27,-2 9-16,-5 16 37,1-8-1,3-5 125,-3 25-239,5-18 132,-4 18 130,6-27-84,-5 18 74,6-21-86,1 1 0,0 0 0,2 8-166,0-9 99,0-12 11,1 0 0,1 10-110,-1-19 18,1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0-1 1,1 1-1,-1 0 1,1-1-1,0 0 1,1 2-18,3 3 22,1-1 1,-1 1 0,5 2-23,-8-7 16,2 0 0,-1 0 1,0 0-1,1 0 0,0 0-16,6 1 41,0 1 0,1-2 0,0 0 0,-1 0-1,9 0-40,33 4 70,-34-4-67,17 2 24,0-1-7,-13-2-93,16-2-494,-23 0 282,-7 0 90,-1 0-35,1 0-44,-1 0-51,-1 0 10,1 0-46,-1 0-50,0 0-54,0 0-58,1 0-64,-1 0-68,1 0-72,-3 0 88,1 0-49,0 0-183,3 0-488</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="401.739">850 543 4992,'2'-5'376,"0"0"-40,6-20 1079,-7 17-899,-1 1 105,0 4 509,-2 1-36,-8-4-185,3 3-335,2-1 76,4 3-564,-2-1 229,1 0-65,0 0-56,0 1-46,-2-1 38,-11 1 139,-5 0 171,-12 1 325,11 3-348,3 2-180,10-1-193,-1 0-38,-22 18 48,11-5-88,6 1-58,2 2-65,5-8 38,5-8 42,0 0 0,0-1 0,0 1 0,0 0 0,1 0 1,0 0-1,0 1 0,0-1 0,0 1 21,5 15-62,-2-15 44,7 11-88,-8-15 98,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,0 1 7,-1-1-4,0 1 0,1-1 1,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0-1-1,-1 1 1,1 0 0,1-1 3,9-2 7,-1 0 0,1-1 0,0 0 0,-1-1 0,0 0 0,0-1 0,-1 0 0,0-1 0,0 0 0,8-7-7,-4 3 35,11-9 33,-9 4 49,-5 2 69,0-4 111,13-33 786,-20 40-700,-1 3-102,1-1-82,-2 2-90,0-1-77,-1-2-65,-1 8-74,0 2-32,0 1-150,0 2-104,0 10-150,0-1 84,3 25-850,-2-29 992,0 1-36,0-1-58,1 1-61,-1 0-73,1 1-86,-1-2-19,-1 0-67,1 1-207,-1 6-534</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">148 1 5120,'0'0'713,"0"0"-273,0 0-114,0 0-51,0 0 35,0 0 207,0 0-296,0 0 38,0 0 349,0 0 731,0 0-881,0 2 140,1 1-275,-1 9 378,-3-3-77,0-7-354,-3 3 126,3 7-138,-2 3-22,-2-2-47,-1 1-16,1 2-52,1 4-27,-2 8-16,-5 18 37,1-8-1,3-6 125,-3 26-239,5-18 132,-4 18 130,6-28-84,-5 19 74,6-22-86,1 1 0,0 0 0,2 8-166,0-10 99,0-12 11,1 0 0,1 11-110,-1-21 18,1 0-1,0-1 1,0 2-1,0-1 1,0 0-1,0-1 1,1 2-1,-1-1 1,1-1-1,0 0 1,1 3-18,3 2 22,1 0 1,-1 0 0,5 3-23,-8-8 16,2 0 0,-1 1 1,0-1-1,1 0 0,0 0-16,6 1 41,0 2 0,1-3 0,0 0 0,-1 0-1,9 1-40,33 3 70,-34-4-67,17 3 24,0-2-7,-13-2-93,16-2-494,-23 0 282,-7 0 90,-1 0-35,1 0-44,-1 0-51,-1 0 10,1 0-46,-1 0-50,0 0-54,0 0-58,1 0-64,-1 0-68,1 0-72,-3 0 88,1 0-49,0 0-183,3 0-488</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="401.7389">850 579 4992,'2'-5'376,"0"-1"-40,6-20 1079,-7 17-899,-1 2 105,0 4 509,-2 0-36,-8-3-185,3 3-335,2-1 76,4 3-564,-2-2 229,1 1-65,0 0-56,0 1-46,-2-1 38,-11 1 139,-5 0 171,-12 1 325,11 3-348,3 2-180,10 0-193,-1-1-38,-22 19 48,11-5-88,6 2-58,2 1-65,5-8 38,5-9 42,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,0 1-1,0 0 0,0-1 0,0 2 21,5 15-62,-2-16 44,7 12-88,-8-16 98,0 0 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,0 1 7,-1-1-4,0 1 0,1-1 1,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0-1-1,-1 1 1,1 0 0,1-1 3,9-2 7,-1 0 0,1-2 0,0 1 0,-1-1 0,0-1 0,0 0 0,-1 0 0,0-2 0,0 1 0,8-8-7,-4 3 35,11-9 33,-9 4 49,-5 2 69,0-5 111,13-34 786,-20 42-700,-1 4-102,1-2-82,-2 3-90,0-2-77,-1-2-65,-1 9-74,0 2-32,0 1-150,0 3-104,0 9-150,0 0 84,3 27-850,-2-32 992,0 2-36,0-2-58,1 2-61,-1 0-73,1 0-86,-1-1-19,-1-1-67,1 2-207,-1 6-534</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-06-21T14:38:06.025"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">178 7069 5504,'-3'-7'809,"1"-1"-108,0 0-106,1-1-107,0 2-107,0 0-105,1 2-107,0 1-106,0-11 703,0 1-89,0 0-81,0 0-75,0 1-69,0 0-63,0-1-57,0 1-49,0-9 118,0-1-106,0 1-73,0-28 225,0 34-279,0 2 37,0 0 9,0 1 45,0-1 51,0 0 60,-1-31 318,-3 1-110,1 9-170,1-21 142,3 1-58,-1 13-199,0 1-46,-1 0-51,0 5-59,-3-7 48,1-5 9,1 1-45,1 1-45,-2-13-10,-1-4-7,3 17 1,1-43 62,0-45 143,0 58-98,1 23-97,-4-33 4,-8-48 8,0-23-66,5-3-44,1 54 4,0 4 51,-2-107 11,3 141-73,-1-2-41,3 46 21,-1-114-80,-2 55 60,4-158 62,7 135-47,-4 50-5,-2-3 37,1-11-59,10-63-150,-6 71 162,-1-5 36,-5-28 11,2-6-79,-1 95 74,8-286-289,-3 139 150,5-1 48,0-2 71,-5 2 98,-4 19-124,0 8 58,-3 6 69,-8-54-76,3 89-91,4-20 91,1 42-16,-4-27 125,2 45-31,2 13-48,-1-20-26,0-17-43,-1-35-10,0 39 34,2 19 11,-6-117 2,5 104 2,4-19 0,-1 14 11,0 1 24,-2-7-41,-7-129-98,5 144 65,0-21 14,2 30 2,-1 24-28,-2-2-40,2 13 54,1 0-90,1-1-103,-1 0-117,1 5 44,0 0-61,0 2-65,0 0-70,0 0-133,-2 2-71,0 1-89,-1 0-110,-1 0 93,0 1-67,-1 0-240,-5-2-629,11 4 1742</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3638,12 +3823,12 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 95 6400,'0'-2'310,"1"0"35,-1-1 424,5-2 1791,-3 4-1959,-1 1-52,1 0-71,1 0-88,-2 0-190,1 0-52,-1 0-59,1 0-65,0 0-64,-1 0-65,1 0-71,0 0-73,-1 0 289,0 0 0,0 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 0-40,2 10 275,0 1-38,-2-1-53,0-2-65,-2 34 342,-3 0-91,1-14-145,0 9 25,-1-6-79,-12 54 156,17-86-323,-20 108 384,11-55-211,0 9-43,6-28-34,2 16-100,1-40 1,0 0 0,1 0-1,0 0 1,0 0-1,1-1 1,2 6-1,-2-11 0,0 1 1,0-1-1,0 1 1,0-1 0,1 0-1,0 0 1,2 2-1,18 16 46,-20-20-41,0 0-1,1 0 1,-1 0 0,0 0-1,1-1 1,0 1 0,-1-1-1,1 0 1,0 0 0,-1-1-1,1 1 1,0-1 0,0 0-1,0 0 1,-1 0 0,4-1-5,6-1 14,0 0 0,0-2 0,-1 0 0,4-1-14,14-5 82,-24 8-73,28-8 49,3-3 40,0-6 66,-31 15-101,0 0 0,0 0 0,0-1 0,1-2-63,-6 6 5,0 0 0,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0-1 0,-1 1 0,1 0 0,0-1-5,1-10-7,-2 1-44,0 0-57,0 8 76,0 0 3,1 1 0,-1-1-1,0 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,0 1-1,1 0 1,-1-1 0,1 0 29,21-24-261,-6 8 132,-3-3 22,-3-1 39,6-9 19,-7 13 54,-4 4 40,2-7 102,-4 7-97,-4 10-49,0 1-1,0-1 1,-1 1-1,0 0 1,1-1-1,-2-1 0,-7-1 0,6 2 3,0 1 19,-6 2 33,6 2-12,-1 0-1,1 0 0,-1 0 1,1 1-1,0-1 0,-1 1 0,1-1 1,-3 2-43,-6 8 201,2 3-31,-3 0 51,6-6-91,-1 1 33,-2 8 139,-18 53 461,22-53-627,1-2-43,-1 3 7,1 0-46,3-10-52,1-1 0,0 0 0,1 1 0,0 4-2,0-7-9,0-1 1,0 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 1 0,1-1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,1 0 1,-1-1 0,1 0-1,1 2 9,4 1 2,-1 0 0,1-1 0,0 0-1,0 0 1,1 0 0,0-1-2,23 6-40,1-3-36,1-2-43,0-2-47,0-2-54,-1 0-59,-32 0 267,26-2-32,-6-5 84,-16 5-20,-1 1-2,-1 0-1,0 0 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0-1-18,0 1 10,-1-1 0,0 1 1,0-1-1,1 0 0,-1 0 0,-1 0 1,2 0-11,7-24-4,-2-3-84,-1 0-85,4 2-94,-8 21 253,1-3-47,9-31-269,-9 24 218,-3 1 27,-1 13 71,0 0 1,0 0 0,0 1-1,1-1 1,-1 0 0,1 0-1,0 0 1,-1 0 13,4-5-16,2-8 13,-5 1 43,0 5-19,-2-9 97,1 18-115,0 1 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0-1 0,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0-3,-18 3-26,5 4 57,4 5 45,3 4 35,2-1 82,1-5-50,-3 4 17,-1 2-66,3 0-67,3 4-59,3 11-90,0-5 16,-1-23 100,0 1 0,0 0 0,1 0-1,0-1 1,-1 1 0,2 1 6,-1-2-18,0-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,1 1 1,0-1 17,6 7-108,1-1-37,1-1-43,1 1-47,-2-2 49,1-1-50,0 0-46,-1 0-43,1-2-38,-1 1-33,10 1-483,5-1-287,35-1-1715,-33-3 1445,14 0-824</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">993 518 8448,'0'0'1121,"0"0"-430,0 0-179,0 0-79,0 0-92,0 1-78,0-1-25,-2 2 35,-7 6 415,8-6-430,0-1-65,0 1-55,1-1-47,0 1-32,0 0-40,1 2-52,-1-3 46,0 0 49,1 11 25,4 2-48,0 0-27,-2 0-6,9 27-6,-3-14 18,2 6 66,-9-29-58,0-1 0,0 1 0,0 0-1,0-1 1,1 1 0,-1-1-1,3 2-25,-4-3-120,1-1 73,-1 1 67,0 0 61,1 1 52,-1-1 47,2 2 289,-2-1-24,1 0 683,-2-4-745,0-1-36,-1-1-52,-1-2-68,-2-4 131,-1-6 156,3-1-116,2 8-282,0-2-34,-1-11-1,2-2-105,0 20 9,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 15,19-19-174,-9 12 44,0 1-40,5-3-135,1 1-110,-6 3 41,0 0-74,-3 3-20,0-1-53,0 2-45,0-1-38,13-4-957,13-1-900,-9 3 506,1 1-52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1456 55 6528,'0'-1'239,"0"-1"71,0 1 59,0-1 49,0 0 422,0 1 1228,0 1-1410,0 1-102,0-1-328,0 1-40,0 0-44,0 0-48,0 0-53,0 1-106,0 0-118,0-1 44,0 1-34,1 7 360,-1-1 13,0 0-28,-1 0 7,-1 3 44,-1 2-100,-3 19 95,4-16-98,2 2 51,0 25 114,0 7-69,0 1-66,0-5-63,1 0 129,4 21-218,4 5 97,-1-38-92,-3-17-30,1 0 0,1 0 1,5 6 24,-11-21 4,-1 0 1,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1-1,0-1 1,0 0 0,2 1-5,-2-1 0,1 1-1,0 0 0,-1-1 1,1 0-1,0 1 1,0-1-1,-1 0 0,1-1 1,0 1-1,-1 0 1,1-1-1,1 0 1,18-9-82,-14 6 33,10-5-211,-10 5 84,0-1-34,0 0-35,1 0-39,-1-2-40,1 1-44,3-4-199,-3 5 145,-2 0 16,1 0-70,-2 1 12,1 0-72,1 1-83,-1-1-94,5-2-506,2-1-452</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1906 558 6144,'0'0'804,"0"0"-308,0 0-129,0 0-56,0 0-65,0 0-57,1-1-16,0-2 25,8-15 303,-7 14-210,-1 1-100,-1 0-66,0 1-66,0 0-32,1 1 69,2-1 60,0 0-50,0 1 11,-2-1 66,0 0 6,-1 0 76,0-1 91,0-1 107,0-3-162,-1 1 44,-1 0 110,-4 0 274,-3 0 3,2 3-274,-1 0-110,0 0-41,0 0-137,-3-1 97,9 3-226,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 1-1,-1-1 0,0 1 1,0-1-42,-12 8 190,3 0-64,10-5-108,-1-1 1,0 0-1,0 0 1,1 1 0,-1-1-1,1 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 1-18,-10 23 8,1-2-26,9-23 13,0 0 0,1 1 0,0-1 0,-1 0 0,1 1 1,0-1-1,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 5,4 9-26,2 2-69,4 3-84,3 1-155,-7-14 63,1-2 56,9-3-97,-9 1 166,11-2-19,-1-2 33,3-7 42,-5 0 117,-10 4 31,0-1 32,3-5 144,-3-2 115,-4 7-126,0 0 35,-1 0 35,-1-1 39,0 3-67,0 1-46,0 1-39,0 0-34,0-3 55,0-7 143,-1 6-145,-2 3-70,-1 4-58,-1 3-46,-3 5-58,7-6 23,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,1 0-1,0 0 1,-1 1 0,1-1-1,0 0 1,0 0-1,-1 1 11,1 7-45,0 5-121,1 1-89,0 0-73,1-1-54,-1-10 251,-1 0 0,2 0 0,-1 0 0,0-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 131,7 6-409,2-1 68,1-1 71,2-3 72,-1-2 73,1-3 77,-1-5 77,-1-3 79,-6 1-2,1-1 64,-1 0 55,-1-1 46,5-8 305,-9 13-408,0 0 0,0 0-1,-1 0 1,0 0 0,1 0 0,-2 0 0,1 0 0,-1 0 0,1 0-168,-2-15 559,1 2-102,-3-4-9,1 16-309,1 1 1,-1-1-1,0 1 0,-3-6-139,1 5 53,1 4-42,0 9-91,2 6-60,1 7-141,0-12 115,4 19-430,-3-25 498,0 1-1,0 0 1,1 0-1,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,4 1 98,12 6-448,2-4 111,1-3 92,0-4 69,5-4 27,-13 2 57,0 0-1,-1-1 1,5-3 92,-5 1 21,-8 5-38,-1 0 0,1-1 1,-1 1-1,1-1 0,2-3 17,1-3 54,-2-1 110,-3 4-29,-1 1 42,0-2 49,0 1 52,-2 1-79,-1 3 162,0 3-199,0 1-42,0-1-73,-1 2-36,1-1-37,-4 3 104,4-3-63,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1 0 0,-1 1-1,1-1 1,0 0 0,-1 1-16,0 5 36,-1 1-42,-1 9-110,0 5-164,2 8-298,2-23 251,0 0 36,1 4-141,5 13-510,-3-18 613,0 0-46,0-1-11,0 1-58,0 0-70,1 0-80,-4-7 545,7 13-1121,-3-8 537,0-1-44,5 0-498,7-3-716</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">2726 3 7552,'-4'-1'784,"0"1"-60,-1 0-58,1 0-56,-1-1-70,1 1-46,0 0-44,-1 0-41,1 0-38,-1 0-35,-3 1 238,0 1-111,1 1-90,0 2-69,2 1-48,-2 5 37,0 1-64,0 1-53,0 1-45,-5 11 21,-12 28 41,11-18-100,5-3-35,4-1-36,1 0-40,0-1-36,1-14 27,0 0-69,1-5-20,-1 0-38,1 1-37,0-2-36,0 1-35,1 0-34,-1-1-35,1 1-33,0 3-201,0 0-55,0-1-67,0 1-76,0-4 94,0 1-43,0 2-187,0 6-495</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">2488 532 8960,'-10'-10'1249,"1"0"-101,4 6-619,0-1-35,1 1-37,0-1-41,2 3 187,1 2 101,1 0 183,0 0-345,0 0-89,0 0 107,0 0-150,0 0-68,1 0-93,1-2-71,4-3-31,2 2-49,0 1-41,2 1-36,10-1-56,-16 1-73,0 0 65,-1 0 53,2-1 69,0 0-11,-1 0-115,0 2-90,-2-1 24,1 1-33,2-1-181,1 1-121,-3 0 174,1 0-36,0 0-39,0 0-39,7 0-347,4 0-62,1 0-65,2 0-67,-4 0 137,2 0-36,31 0-1781</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 101 6400,'0'-2'310,"1"0"35,-1-2 424,5-1 1791,-3 4-1959,-1 1-52,1 0-71,1 0-88,-2 0-190,1 0-52,-1 0-59,1 0-65,0 0-64,-1 0-65,1 0-71,0 0-73,-1 0 289,0 0 0,0 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 1-40,2 9 275,0 2-38,-2-1-53,0-3-65,-2 37 342,-3-1-91,1-14-145,0 10 25,-1-7-79,-12 57 156,17-91-323,-20 115 384,11-59-211,0 10-43,6-30-34,2 17-100,1-43 1,0 1 0,1 0-1,0-1 1,0 1-1,1-2 1,2 7-1,-2-11 0,0 0 1,0-1-1,0 1 1,0 0 0,1-1-1,0 0 1,2 3-1,18 16 46,-20-21-41,0 0-1,1 0 1,-1 0 0,0 1-1,1-2 1,0 1 0,-1-1-1,1 0 1,0 0 0,-1-1-1,1 1 1,0-1 0,0 0-1,0 0 1,-1 0 0,4-1-5,6-1 14,0 0 0,0-3 0,-1 1 0,4-1-14,14-6 82,-24 9-73,28-9 49,3-2 40,0-7 66,-31 15-101,0 1 0,0 0 0,0-2 0,1-1-63,-6 6 5,0 0 0,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0-2 0,-1 2 0,1 0 0,0-1-5,1-11-7,-2 2-44,0-1-57,0 9 76,0 0 3,1 1 0,-1-2-1,0 2 1,1-1 0,0 1-1,-1-1 1,1 1 0,0-2 0,0 2-1,1 0 1,-1-1 0,1 0 29,21-26-261,-6 9 132,-3-3 22,-3-2 39,6-9 19,-7 14 54,-4 4 40,2-7 102,-4 7-97,-4 11-49,0 0-1,0 0 1,-1 1-1,0 0 1,1-2-1,-2 0 0,-7-2 0,6 3 3,0 1 19,-6 2 33,6 2-12,-1 0-1,1 0 0,-1 0 1,1 1-1,0-1 0,-1 1 0,1-1 1,-3 2-43,-6 9 201,2 2-31,-3 1 51,6-6-91,-1 0 33,-2 9 139,-18 56 461,22-56-627,1-2-43,-1 3 7,1 0-46,3-10-52,1-2 0,0 1 0,1 0 0,0 5-2,0-8-9,0-1 1,0 1-1,1-1 1,-1 2 0,1-2-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,1-1-1,0 0 1,0 1 0,0-1-1,0-1 1,0 1-1,1 0 1,-1-1 0,1 0-1,1 3 9,4 0 2,-1 0 0,1 0 0,0-1-1,0 0 1,1 0 0,0-1-2,23 7-40,1-4-36,1-1-43,0-3-47,0-2-54,-1 0-59,-32 0 267,26-2-32,-6-6 84,-16 6-20,-1 1-2,-1 0-1,0 0 1,0-1-1,0 0 0,0 1 1,0-2-1,0 1 1,0-1-18,0 1 10,-1-1 0,0 1 1,0-1-1,1-1 0,-1 1 0,-1 0 1,2 0-11,7-26-4,-2-3-84,-1 0-85,4 3-94,-8 21 253,1-2-47,9-34-269,-9 26 218,-3 1 27,-1 14 71,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0 13,4-6-16,2-8 13,-5 1 43,0 5-19,-2-9 97,1 19-115,0 1 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0-1 0,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0-3,-18 3-26,5 4 57,4 6 45,3 4 35,2-1 82,1-5-50,-3 4 17,-1 1-66,3 1-67,3 5-59,3 11-90,0-6 16,-1-24 100,0 2 0,0-1 0,1 0-1,0-1 1,-1 2 0,2 0 6,-1-2-18,0-1 0,0 1 1,0 0-1,1 0 0,-1-1 0,1 1 1,0-1 17,6 8-108,1-2-37,1 0-43,1 0-47,-2-2 49,1 0-50,0-1-46,-1 0-43,1-1-38,-1 0-33,10 1-483,5-1-287,35 0-1715,-33-4 1445,14 0-824</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">993 550 8448,'0'0'1121,"0"0"-430,0 0-179,0 0-79,0 0-92,0 1-78,0-1-25,-2 2 35,-7 7 415,8-7-430,0-1-65,0 1-55,1-1-47,0 1-32,0 0-40,1 2-52,-1-3 46,0 0 49,1 12 25,4 2-48,0 0-27,-2 0-6,9 28-6,-3-14 18,2 6 66,-9-31-58,0-1 0,0 2 0,0-1-1,0-1 1,1 1 0,-1 0-1,3 1-25,-4-3-120,1-1 73,-1 1 67,0 0 61,1 2 52,-1-2 47,2 2 289,-2-1-24,1 0 683,-2-4-745,0-1-36,-1-1-52,-1-2-68,-2-5 131,-1-6 156,3-1-116,2 9-282,0-3-34,-1-11-1,2-3-105,0 22 9,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,0-2 0,-1 2 0,1 0 0,0 0 15,19-21-174,-9 14 44,0 0-40,5-3-135,1 2-110,-6 2 41,0 1-74,-3 3-20,0-2-53,0 3-45,0-1-38,13-5-957,13-1-900,-9 4 506,1 1-52</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1456 58 6528,'0'-1'239,"0"-1"71,0 1 59,0-1 49,0 0 422,0 1 1228,0 1-1410,0 1-102,0-1-328,0 1-40,0 0-44,0 0-48,0 0-53,0 1-106,0 0-118,0-1 44,0 2-34,1 6 360,-1 0 13,0-1-28,-1 1 7,-1 2 44,-1 3-100,-3 20 95,4-17-98,2 2 51,0 27 114,0 7-69,0 1-66,0-5-63,1 0 129,4 22-218,4 5 97,-1-40-92,-3-18-30,1 0 0,1 0 1,5 7 24,-11-23 4,-1 0 1,1-1 0,0 1 0,0 0 0,0-1 0,0 2 0,1-2 0,-1 1 0,0-1 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 2-1,0-2 1,0 0 0,2 1-5,-2-1 0,1 1-1,0 0 0,-1-1 1,1 0-1,0 1 1,0-1-1,-1 0 0,1-1 1,0 1-1,-1 0 1,1-1-1,1 0 1,18-10-82,-14 7 33,10-6-211,-10 6 84,0-1-34,0-1-35,1 1-39,-1-2-40,1 0-44,3-3-199,-3 4 145,-2 1 16,1 0-70,-2 0 12,1 1-72,1 1-83,-1-1-94,5-3-506,2 0-452</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1906 592 6144,'0'0'804,"0"0"-308,0 0-129,0 0-56,0 0-65,0 0-57,1-1-16,0-2 25,8-16 303,-7 15-210,-1 1-100,-1-1-66,0 2-66,0 0-32,1 1 69,2-1 60,0 0-50,0 1 11,-2-1 66,0-1 6,-1 1 76,0-1 91,0-1 107,0-4-162,-1 2 44,-1 0 110,-4-1 274,-3 1 3,2 3-274,-1 0-110,0-1-41,0 1-137,-3-1 97,9 3-226,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 1-1,-1-1 0,0 1 1,0-1-42,-12 8 190,3 1-64,10-6-108,-1-1 1,0 0-1,0 0 1,1 2 0,-1-2-1,1 1 1,0 0-1,0-1 1,0 1-1,0 1 1,0-1-1,0 1-18,-10 25 8,1-3-26,9-24 13,0 0 0,1 2 0,0-2 0,-1 0 0,1 1 1,0-1-1,0 0 0,1 0 0,-1 2 0,0-2 0,1 1 5,4 10-26,2 2-69,4 3-84,3 1-155,-7-15 63,1-2 56,9-3-97,-9 1 166,11-2-19,-1-2 33,3-8 42,-5 0 117,-10 5 31,0-2 32,3-4 144,-3-3 115,-4 7-126,0 1 35,-1-1 35,-1 0 39,0 2-67,0 2-46,0 1-39,0-1-34,0-2 55,0-8 143,-1 7-145,-2 2-70,-1 5-58,-1 3-46,-3 6-58,7-7 23,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,1 0-1,0 0 1,-1 2 0,1-2-1,0 0 1,0 0-1,-1 1 11,1 7-45,0 6-121,1 1-89,0 0-73,1-1-54,-1-11 251,-1 0 0,2 1 0,-1-1 0,0-1 0,1 1 0,0 1 0,-1-1 0,1-1 0,1 0 0,-1 1 0,1 0 0,-1-1 0,1 0 131,7 7-409,2-2 68,1 0 71,2-4 72,-1-2 73,1-3 77,-1-6 77,-1-2 79,-6 0-2,1 0 64,-1-1 55,-1 0 46,5-9 305,-9 13-408,0 1 0,0 0-1,-1-1 1,0 1 0,1 0 0,-2-1 0,1 1 0,-1 0 0,1-1-168,-2-15 559,1 2-102,-3-4-9,1 16-309,1 2 1,-1-1-1,0 0 0,-3-5-139,1 4 53,1 5-42,0 10-91,2 6-60,1 7-141,0-13 115,4 21-430,-3-27 498,0 1-1,0 0 1,1 1-1,-1-1 1,1-1-1,0 1 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,1 0 0,-1 0 1,4 1 98,12 7-448,2-5 111,1-3 92,0-4 69,5-4 27,-13 2 57,0-1-1,-1 0 1,5-4 92,-5 2 21,-8 5-38,-1 0 0,1-1 1,-1 1-1,1-2 0,2-2 17,1-4 54,-2 0 110,-3 3-29,-1 2 42,0-2 49,0 0 52,-2 2-79,-1 3 162,0 3-199,0 1-42,0-1-73,-1 2-36,1-1-37,-4 4 104,4-4-63,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1 1 0,-1 0-1,1-1 1,0 0 0,-1 1-16,0 6 36,-1 0-42,-1 10-110,0 6-164,2 8-298,2-25 251,0 1 36,1 3-141,5 15-510,-3-20 613,0 1-46,0-2-11,0 2-58,0-1-70,1 0-80,-4-7 545,7 14-1121,-3-8 537,0-2-44,5 0-498,7-3-716</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">2726 3 7552,'-4'-1'784,"0"1"-60,-1 0-58,1 0-56,-1-1-70,1 1-46,0 0-44,-1 0-41,1 0-38,-1 0-35,-3 1 238,0 1-111,1 1-90,0 3-69,2 0-48,-2 6 37,0 0-64,0 2-53,0 1-45,-5 12 21,-12 29 41,11-19-100,5-3-35,4-1-36,1 0-40,0-1-36,1-15 27,0 0-69,1-6-20,-1 1-38,1 1-37,0-3-36,0 2-35,1 0-34,-1-2-35,1 2-33,0 3-201,0 0-55,0-1-67,0 0-76,0-3 94,0 1-43,0 2-187,0 6-495</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">2488 565 8960,'-10'-11'1249,"1"0"-101,4 7-619,0-1-35,1 1-37,0-2-41,2 4 187,1 2 101,1 0 183,0 0-345,0 0-89,0 0 107,0 0-150,0 0-68,1 0-93,1-2-71,4-3-31,2 2-49,0 0-41,2 2-36,10-1-56,-16 1-73,0 0 65,-1 0 53,2-1 69,0 0-11,-1 0-115,0 2-90,-2-1 24,1 1-33,2-1-181,1 1-121,-3 0 174,1 0-36,0 0-39,0 0-39,7 0-347,4 0-62,1 0-65,2 0-67,-4 0 137,2 0-36,31 0-1781</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3999,16 +4184,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A37CBF-692D-4118-8539-202599A9E817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4046,7 +4231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>125</v>
@@ -4078,7 +4263,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>110</v>
@@ -4110,7 +4295,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>115</v>
@@ -4142,7 +4327,7 @@
         <v>2.9212500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -4154,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -4174,7 +4359,7 @@
         <v>2.9193055555555554</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -4186,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -4198,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.65</v>
       </c>
@@ -4230,11 +4415,11 @@
         <v>28.416666666666668</v>
       </c>
       <c r="P9">
-        <f>(L9-($E$6*N9))/K9</f>
-        <v>4.3222534831902157</v>
+        <f>(L9-($O$6*N9))/K9</f>
+        <v>6.4313460866526926</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2.7</v>
       </c>
@@ -4266,11 +4451,11 @@
         <v>31.8</v>
       </c>
       <c r="P10">
-        <f>(L10-($E$6*N10))/K10</f>
-        <v>4.0413116241351936</v>
+        <f t="shared" ref="P10:P11" si="4">(L10-($O$6*N10))/K10</f>
+        <v>6.3578086419753079</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2.74</v>
       </c>
@@ -4302,51 +4487,51 @@
         <v>35.1</v>
       </c>
       <c r="P11">
-        <f>(L11-($E$6*N11))/K11</f>
-        <v>3.8791156247910354</v>
+        <f t="shared" si="4"/>
+        <v>6.3986770072992698</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="H13" t="s">
         <v>4</v>
       </c>
       <c r="P13">
         <f>SUM(P9:P11)/3</f>
-        <v>4.0808935773721489</v>
+        <v>6.3959439119757562</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -4357,16 +4542,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5961082A-3025-4788-9984-0C35512DCC24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4383,7 +4568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0.5</v>
       </c>
@@ -4391,7 +4576,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50.5</v>
       </c>
@@ -4402,7 +4587,7 @@
         <v>1000</v>
       </c>
       <c r="D3">
-        <f>C3/60</f>
+        <f t="shared" ref="D3:D13" si="0">C3/60</f>
         <v>16.666666666666668</v>
       </c>
       <c r="E3">
@@ -4410,7 +4595,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50.1</v>
       </c>
@@ -4421,15 +4606,15 @@
         <v>1000</v>
       </c>
       <c r="D4">
-        <f>C4/60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E13" si="0">A4/D4</f>
+        <f t="shared" ref="E4:E13" si="1">A4/D4</f>
         <v>3.0059999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>48.8</v>
       </c>
@@ -4440,15 +4625,15 @@
         <v>1000</v>
       </c>
       <c r="D5">
-        <f>C5/60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9279999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>47.4</v>
       </c>
@@ -4459,15 +4644,15 @@
         <v>1000</v>
       </c>
       <c r="D6">
-        <f>C6/60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8439999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45.5</v>
       </c>
@@ -4478,15 +4663,15 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <f>C7/60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42.9</v>
       </c>
@@ -4497,15 +4682,15 @@
         <v>1000</v>
       </c>
       <c r="D8">
-        <f>C8/60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5739999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>39.1</v>
       </c>
@@ -4516,15 +4701,15 @@
         <v>1000</v>
       </c>
       <c r="D9">
-        <f>C9/60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>33</v>
       </c>
@@ -4535,15 +4720,15 @@
         <v>1000</v>
       </c>
       <c r="D10">
-        <f>C10/60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9799999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24.2</v>
       </c>
@@ -4554,15 +4739,15 @@
         <v>1000</v>
       </c>
       <c r="D11">
-        <f>C11/60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.452</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13.2</v>
       </c>
@@ -4573,15 +4758,15 @@
         <v>1000</v>
       </c>
       <c r="D12">
-        <f>C12/60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79199999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4592,11 +4777,11 @@
         <v>1000</v>
       </c>
       <c r="D13">
-        <f>C13/60</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
